--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8820051025576617</v>
+        <v>0.8820051025576646</v>
       </c>
       <c r="D2">
         <v>1.024924205395261</v>
       </c>
       <c r="E2">
-        <v>0.904356004534218</v>
+        <v>0.904356004534221</v>
       </c>
       <c r="F2">
-        <v>0.8767193741433651</v>
+        <v>0.8767193741433688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03790914688855</v>
+        <v>1.037909146888551</v>
       </c>
       <c r="J2">
-        <v>0.9083953555715324</v>
+        <v>0.9083953555715352</v>
       </c>
       <c r="K2">
-        <v>1.036046892586234</v>
+        <v>1.036046892586235</v>
       </c>
       <c r="L2">
-        <v>0.9173308575480275</v>
+        <v>0.9173308575480301</v>
       </c>
       <c r="M2">
-        <v>0.8902129299665197</v>
+        <v>0.8902129299665231</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,28 +465,28 @@
         <v>1.030760547097014</v>
       </c>
       <c r="E3">
-        <v>0.9215085918120763</v>
+        <v>0.9215085918120761</v>
       </c>
       <c r="F3">
-        <v>0.9025741888206352</v>
+        <v>0.9025741888206348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042231928686298</v>
+        <v>1.042231928686297</v>
       </c>
       <c r="J3">
-        <v>0.9259246690750862</v>
+        <v>0.9259246690750861</v>
       </c>
       <c r="K3">
-        <v>1.041014406453245</v>
+        <v>1.041014406453244</v>
       </c>
       <c r="L3">
-        <v>0.9332551172481197</v>
+        <v>0.9332551172481196</v>
       </c>
       <c r="M3">
-        <v>0.9146266693971755</v>
+        <v>0.9146266693971751</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9142245449950143</v>
+        <v>0.9142245449950145</v>
       </c>
       <c r="D4">
-        <v>1.034204336810462</v>
+        <v>1.034204336810463</v>
       </c>
       <c r="E4">
-        <v>0.9315172468570323</v>
+        <v>0.9315172468570324</v>
       </c>
       <c r="F4">
-        <v>0.917422082932123</v>
+        <v>0.9174220829321239</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04471737204487</v>
       </c>
       <c r="J4">
-        <v>0.9361096565656983</v>
+        <v>0.9361096565656984</v>
       </c>
       <c r="K4">
-        <v>1.043906754319001</v>
+        <v>1.043906754319002</v>
       </c>
       <c r="L4">
         <v>0.942519071709556</v>
       </c>
       <c r="M4">
-        <v>0.9286311263393622</v>
+        <v>0.9286311263393628</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9189546267321261</v>
+        <v>0.9189546267321257</v>
       </c>
       <c r="D5">
         <v>1.035585711784865</v>
       </c>
       <c r="E5">
-        <v>0.9355129088065218</v>
+        <v>0.9355129088065217</v>
       </c>
       <c r="F5">
-        <v>0.9232998789585871</v>
+        <v>0.9232998789585877</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045700150203462</v>
       </c>
       <c r="J5">
-        <v>0.9401664043121716</v>
+        <v>0.9401664043121712</v>
       </c>
       <c r="K5">
-        <v>1.045058489306197</v>
+        <v>1.045058489306198</v>
       </c>
       <c r="L5">
-        <v>0.9462113855378311</v>
+        <v>0.9462113855378309</v>
       </c>
       <c r="M5">
-        <v>0.9341709501210819</v>
+        <v>0.9341709501210823</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9197352073591789</v>
+        <v>0.9197352073591767</v>
       </c>
       <c r="D6">
-        <v>1.03581406102895</v>
+        <v>1.035814061028949</v>
       </c>
       <c r="E6">
-        <v>0.9361724879115578</v>
+        <v>0.9361724879115558</v>
       </c>
       <c r="F6">
-        <v>0.9242673850513285</v>
+        <v>0.9242673850513262</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045861807279528</v>
       </c>
       <c r="J6">
-        <v>0.9408355446942794</v>
+        <v>0.9408355446942774</v>
       </c>
       <c r="K6">
-        <v>1.04524839991762</v>
+        <v>1.045248399917619</v>
       </c>
       <c r="L6">
-        <v>0.9468205488147609</v>
+        <v>0.946820548814759</v>
       </c>
       <c r="M6">
-        <v>0.9350825775168199</v>
+        <v>0.9350825775168174</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9142886887064404</v>
+        <v>0.9142886887064409</v>
       </c>
       <c r="D7">
-        <v>1.034223041479</v>
+        <v>1.034223041478999</v>
       </c>
       <c r="E7">
         <v>0.9315714175632163</v>
       </c>
       <c r="F7">
-        <v>0.9175019618457846</v>
+        <v>0.9175019618457838</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044730734602711</v>
       </c>
       <c r="J7">
-        <v>0.9361646914913754</v>
+        <v>0.9361646914913758</v>
       </c>
       <c r="K7">
-        <v>1.043922382367962</v>
+        <v>1.043922382367961</v>
       </c>
       <c r="L7">
-        <v>0.9425691533114372</v>
+        <v>0.9425691533114375</v>
       </c>
       <c r="M7">
-        <v>0.9287064289459981</v>
+        <v>0.9287064289459972</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8892019550562361</v>
+        <v>0.8892019550562356</v>
       </c>
       <c r="D8">
-        <v>1.026975204156261</v>
+        <v>1.02697520415626</v>
       </c>
       <c r="E8">
-        <v>0.9104144252623428</v>
+        <v>0.9104144252623426</v>
       </c>
       <c r="F8">
-        <v>0.8859102515497158</v>
+        <v>0.885910251549714</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039443750031802</v>
+        <v>1.039443750031801</v>
       </c>
       <c r="J8">
-        <v>0.9145973525231075</v>
+        <v>0.9145973525231071</v>
       </c>
       <c r="K8">
         <v>1.037801767745528</v>
       </c>
       <c r="L8">
-        <v>0.9229621351292158</v>
+        <v>0.9229621351292154</v>
       </c>
       <c r="M8">
-        <v>0.8988948614759684</v>
+        <v>0.8988948614759666</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8300197097099588</v>
+        <v>0.8300197097099569</v>
       </c>
       <c r="D9">
-        <v>1.010569281139233</v>
+        <v>1.010569281139234</v>
       </c>
       <c r="E9">
-        <v>0.8607485097081278</v>
+        <v>0.860748509708126</v>
       </c>
       <c r="F9">
-        <v>0.808610519561361</v>
+        <v>0.8086105195613593</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026709806742265</v>
       </c>
       <c r="J9">
-        <v>0.8634265224875231</v>
+        <v>0.8634265224875214</v>
       </c>
       <c r="K9">
-        <v>1.023493175381087</v>
+        <v>1.023493175381088</v>
       </c>
       <c r="L9">
-        <v>0.8765928135637714</v>
+        <v>0.8765928135637698</v>
       </c>
       <c r="M9">
-        <v>0.8258200082461234</v>
+        <v>0.8258200082461219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D10">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E10">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F10">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J10">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K10">
         <v>1.006462299602423</v>
       </c>
       <c r="L10">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M10">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D11">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E11">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F11">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J11">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K11">
         <v>1.006462299602423</v>
       </c>
       <c r="L11">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M11">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D12">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E12">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F12">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J12">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K12">
         <v>1.006462299602423</v>
       </c>
       <c r="L12">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M12">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D13">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E13">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F13">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J13">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K13">
         <v>1.006462299602423</v>
       </c>
       <c r="L13">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M13">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D14">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E14">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F14">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J14">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K14">
         <v>1.006462299602423</v>
       </c>
       <c r="L14">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M14">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D15">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E15">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F15">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J15">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K15">
         <v>1.006462299602423</v>
       </c>
       <c r="L15">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M15">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D16">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E16">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F16">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J16">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K16">
         <v>1.006462299602423</v>
       </c>
       <c r="L16">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M16">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D17">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E17">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F17">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J17">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K17">
         <v>1.006462299602423</v>
       </c>
       <c r="L17">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M17">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D18">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E18">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F18">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J18">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K18">
         <v>1.006462299602423</v>
       </c>
       <c r="L18">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M18">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D19">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E19">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F19">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J19">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K19">
         <v>1.006462299602423</v>
       </c>
       <c r="L19">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M19">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D20">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E20">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F20">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J20">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K20">
         <v>1.006462299602423</v>
       </c>
       <c r="L20">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M20">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D21">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E21">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F21">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J21">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K21">
         <v>1.006462299602423</v>
       </c>
       <c r="L21">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M21">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D22">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E22">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F22">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J22">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K22">
         <v>1.006462299602423</v>
       </c>
       <c r="L22">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M22">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D23">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E23">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F23">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J23">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K23">
         <v>1.006462299602423</v>
       </c>
       <c r="L23">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M23">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D24">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E24">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F24">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J24">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K24">
         <v>1.006462299602423</v>
       </c>
       <c r="L24">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M24">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7567769078137552</v>
+        <v>0.7567769078137561</v>
       </c>
       <c r="D25">
-        <v>0.9919460906303658</v>
+        <v>0.9919460906303663</v>
       </c>
       <c r="E25">
-        <v>0.7997975218597583</v>
+        <v>0.7997975218597588</v>
       </c>
       <c r="F25">
-        <v>0.7064906299564448</v>
+        <v>0.7064906299564475</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J25">
-        <v>0.79957563408392</v>
+        <v>0.7995756340839207</v>
       </c>
       <c r="K25">
         <v>1.006462299602423</v>
       </c>
       <c r="L25">
-        <v>0.8190503790728122</v>
+        <v>0.8190503790728129</v>
       </c>
       <c r="M25">
-        <v>0.7294061010164546</v>
+        <v>0.7294061010164571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8820051025576646</v>
+        <v>0.8820051025576617</v>
       </c>
       <c r="D2">
         <v>1.024924205395261</v>
       </c>
       <c r="E2">
-        <v>0.904356004534221</v>
+        <v>0.904356004534218</v>
       </c>
       <c r="F2">
-        <v>0.8767193741433688</v>
+        <v>0.8767193741433651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037909146888551</v>
+        <v>1.03790914688855</v>
       </c>
       <c r="J2">
-        <v>0.9083953555715352</v>
+        <v>0.9083953555715324</v>
       </c>
       <c r="K2">
-        <v>1.036046892586235</v>
+        <v>1.036046892586234</v>
       </c>
       <c r="L2">
-        <v>0.9173308575480301</v>
+        <v>0.9173308575480275</v>
       </c>
       <c r="M2">
-        <v>0.8902129299665231</v>
+        <v>0.8902129299665197</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,28 +465,28 @@
         <v>1.030760547097014</v>
       </c>
       <c r="E3">
-        <v>0.9215085918120761</v>
+        <v>0.9215085918120763</v>
       </c>
       <c r="F3">
-        <v>0.9025741888206348</v>
+        <v>0.9025741888206352</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042231928686297</v>
+        <v>1.042231928686298</v>
       </c>
       <c r="J3">
-        <v>0.9259246690750861</v>
+        <v>0.9259246690750862</v>
       </c>
       <c r="K3">
-        <v>1.041014406453244</v>
+        <v>1.041014406453245</v>
       </c>
       <c r="L3">
-        <v>0.9332551172481196</v>
+        <v>0.9332551172481197</v>
       </c>
       <c r="M3">
-        <v>0.9146266693971751</v>
+        <v>0.9146266693971755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9142245449950145</v>
+        <v>0.9142245449950143</v>
       </c>
       <c r="D4">
-        <v>1.034204336810463</v>
+        <v>1.034204336810462</v>
       </c>
       <c r="E4">
-        <v>0.9315172468570324</v>
+        <v>0.9315172468570323</v>
       </c>
       <c r="F4">
-        <v>0.9174220829321239</v>
+        <v>0.917422082932123</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04471737204487</v>
       </c>
       <c r="J4">
-        <v>0.9361096565656984</v>
+        <v>0.9361096565656983</v>
       </c>
       <c r="K4">
-        <v>1.043906754319002</v>
+        <v>1.043906754319001</v>
       </c>
       <c r="L4">
         <v>0.942519071709556</v>
       </c>
       <c r="M4">
-        <v>0.9286311263393628</v>
+        <v>0.9286311263393622</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9189546267321257</v>
+        <v>0.9189546267321261</v>
       </c>
       <c r="D5">
         <v>1.035585711784865</v>
       </c>
       <c r="E5">
-        <v>0.9355129088065217</v>
+        <v>0.9355129088065218</v>
       </c>
       <c r="F5">
-        <v>0.9232998789585877</v>
+        <v>0.9232998789585871</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045700150203462</v>
       </c>
       <c r="J5">
-        <v>0.9401664043121712</v>
+        <v>0.9401664043121716</v>
       </c>
       <c r="K5">
-        <v>1.045058489306198</v>
+        <v>1.045058489306197</v>
       </c>
       <c r="L5">
-        <v>0.9462113855378309</v>
+        <v>0.9462113855378311</v>
       </c>
       <c r="M5">
-        <v>0.9341709501210823</v>
+        <v>0.9341709501210819</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9197352073591767</v>
+        <v>0.9197352073591789</v>
       </c>
       <c r="D6">
-        <v>1.035814061028949</v>
+        <v>1.03581406102895</v>
       </c>
       <c r="E6">
-        <v>0.9361724879115558</v>
+        <v>0.9361724879115578</v>
       </c>
       <c r="F6">
-        <v>0.9242673850513262</v>
+        <v>0.9242673850513285</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045861807279528</v>
       </c>
       <c r="J6">
-        <v>0.9408355446942774</v>
+        <v>0.9408355446942794</v>
       </c>
       <c r="K6">
-        <v>1.045248399917619</v>
+        <v>1.04524839991762</v>
       </c>
       <c r="L6">
-        <v>0.946820548814759</v>
+        <v>0.9468205488147609</v>
       </c>
       <c r="M6">
-        <v>0.9350825775168174</v>
+        <v>0.9350825775168199</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9142886887064409</v>
+        <v>0.9142886887064404</v>
       </c>
       <c r="D7">
-        <v>1.034223041478999</v>
+        <v>1.034223041479</v>
       </c>
       <c r="E7">
         <v>0.9315714175632163</v>
       </c>
       <c r="F7">
-        <v>0.9175019618457838</v>
+        <v>0.9175019618457846</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044730734602711</v>
       </c>
       <c r="J7">
-        <v>0.9361646914913758</v>
+        <v>0.9361646914913754</v>
       </c>
       <c r="K7">
-        <v>1.043922382367961</v>
+        <v>1.043922382367962</v>
       </c>
       <c r="L7">
-        <v>0.9425691533114375</v>
+        <v>0.9425691533114372</v>
       </c>
       <c r="M7">
-        <v>0.9287064289459972</v>
+        <v>0.9287064289459981</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8892019550562356</v>
+        <v>0.8892019550562361</v>
       </c>
       <c r="D8">
-        <v>1.02697520415626</v>
+        <v>1.026975204156261</v>
       </c>
       <c r="E8">
-        <v>0.9104144252623426</v>
+        <v>0.9104144252623428</v>
       </c>
       <c r="F8">
-        <v>0.885910251549714</v>
+        <v>0.8859102515497158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039443750031801</v>
+        <v>1.039443750031802</v>
       </c>
       <c r="J8">
-        <v>0.9145973525231071</v>
+        <v>0.9145973525231075</v>
       </c>
       <c r="K8">
         <v>1.037801767745528</v>
       </c>
       <c r="L8">
-        <v>0.9229621351292154</v>
+        <v>0.9229621351292158</v>
       </c>
       <c r="M8">
-        <v>0.8988948614759666</v>
+        <v>0.8988948614759684</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8300197097099569</v>
+        <v>0.8300197097099588</v>
       </c>
       <c r="D9">
-        <v>1.010569281139234</v>
+        <v>1.010569281139233</v>
       </c>
       <c r="E9">
-        <v>0.860748509708126</v>
+        <v>0.8607485097081278</v>
       </c>
       <c r="F9">
-        <v>0.8086105195613593</v>
+        <v>0.808610519561361</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026709806742265</v>
       </c>
       <c r="J9">
-        <v>0.8634265224875214</v>
+        <v>0.8634265224875231</v>
       </c>
       <c r="K9">
-        <v>1.023493175381088</v>
+        <v>1.023493175381087</v>
       </c>
       <c r="L9">
-        <v>0.8765928135637698</v>
+        <v>0.8765928135637714</v>
       </c>
       <c r="M9">
-        <v>0.8258200082461219</v>
+        <v>0.8258200082461234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D10">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E10">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F10">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J10">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K10">
         <v>1.006462299602423</v>
       </c>
       <c r="L10">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M10">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D11">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E11">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F11">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J11">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K11">
         <v>1.006462299602423</v>
       </c>
       <c r="L11">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M11">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D12">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E12">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F12">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J12">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K12">
         <v>1.006462299602423</v>
       </c>
       <c r="L12">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M12">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D13">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E13">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F13">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J13">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K13">
         <v>1.006462299602423</v>
       </c>
       <c r="L13">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M13">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D14">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E14">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F14">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J14">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K14">
         <v>1.006462299602423</v>
       </c>
       <c r="L14">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M14">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D15">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E15">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F15">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J15">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K15">
         <v>1.006462299602423</v>
       </c>
       <c r="L15">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M15">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D16">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E16">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F16">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J16">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K16">
         <v>1.006462299602423</v>
       </c>
       <c r="L16">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M16">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D17">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E17">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F17">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J17">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K17">
         <v>1.006462299602423</v>
       </c>
       <c r="L17">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M17">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D18">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E18">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F18">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J18">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K18">
         <v>1.006462299602423</v>
       </c>
       <c r="L18">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M18">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D19">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E19">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F19">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J19">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K19">
         <v>1.006462299602423</v>
       </c>
       <c r="L19">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M19">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D20">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E20">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F20">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J20">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K20">
         <v>1.006462299602423</v>
       </c>
       <c r="L20">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M20">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D21">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E21">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F21">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J21">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K21">
         <v>1.006462299602423</v>
       </c>
       <c r="L21">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M21">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D22">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E22">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F22">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J22">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K22">
         <v>1.006462299602423</v>
       </c>
       <c r="L22">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M22">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D23">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E23">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F23">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J23">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K23">
         <v>1.006462299602423</v>
       </c>
       <c r="L23">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M23">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D24">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E24">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F24">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J24">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K24">
         <v>1.006462299602423</v>
       </c>
       <c r="L24">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M24">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7567769078137561</v>
+        <v>0.7567769078137552</v>
       </c>
       <c r="D25">
-        <v>0.9919460906303663</v>
+        <v>0.9919460906303658</v>
       </c>
       <c r="E25">
-        <v>0.7997975218597588</v>
+        <v>0.7997975218597583</v>
       </c>
       <c r="F25">
-        <v>0.7064906299564475</v>
+        <v>0.7064906299564448</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.010915953700818</v>
       </c>
       <c r="J25">
-        <v>0.7995756340839207</v>
+        <v>0.79957563408392</v>
       </c>
       <c r="K25">
         <v>1.006462299602423</v>
       </c>
       <c r="L25">
-        <v>0.8190503790728129</v>
+        <v>0.8190503790728122</v>
       </c>
       <c r="M25">
-        <v>0.7294061010164571</v>
+        <v>0.7294061010164546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8820051025576617</v>
+        <v>0.8821710736152489</v>
       </c>
       <c r="D2">
-        <v>1.024924205395261</v>
+        <v>1.02493907298568</v>
       </c>
       <c r="E2">
-        <v>0.904356004534218</v>
+        <v>0.9044999753158701</v>
       </c>
       <c r="F2">
-        <v>0.8767193741433651</v>
+        <v>0.8768510770030938</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03790914688855</v>
+        <v>1.037923596216546</v>
       </c>
       <c r="J2">
-        <v>0.9083953555715324</v>
+        <v>0.9085542720182762</v>
       </c>
       <c r="K2">
-        <v>1.036046892586234</v>
+        <v>1.036061565486568</v>
       </c>
       <c r="L2">
-        <v>0.9173308575480275</v>
+        <v>0.9174722340546058</v>
       </c>
       <c r="M2">
-        <v>0.8902129299665197</v>
+        <v>0.890342059209649</v>
+      </c>
+      <c r="N2">
+        <v>0.9401084846884988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9023655233550554</v>
+        <v>0.9024973905472988</v>
       </c>
       <c r="D3">
-        <v>1.030760547097014</v>
+        <v>1.030771820333329</v>
       </c>
       <c r="E3">
-        <v>0.9215085918120763</v>
+        <v>0.9216233922934002</v>
       </c>
       <c r="F3">
-        <v>0.9025741888206352</v>
+        <v>0.9026758941984397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042231928686298</v>
+        <v>1.04224290879378</v>
       </c>
       <c r="J3">
-        <v>0.9259246690750862</v>
+        <v>0.9260517614848763</v>
       </c>
       <c r="K3">
-        <v>1.041014406453245</v>
+        <v>1.041025545924765</v>
       </c>
       <c r="L3">
-        <v>0.9332551172481197</v>
+        <v>0.933368111772233</v>
       </c>
       <c r="M3">
-        <v>0.9146266693971755</v>
+        <v>0.9147266872075769</v>
+      </c>
+      <c r="N3">
+        <v>0.9520468389336482</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9142245449950143</v>
+        <v>0.914338376125801</v>
       </c>
       <c r="D4">
-        <v>1.034204336810462</v>
+        <v>1.034213832010485</v>
       </c>
       <c r="E4">
-        <v>0.9315172468570323</v>
+        <v>0.9316165427959825</v>
       </c>
       <c r="F4">
-        <v>0.917422082932123</v>
+        <v>0.917508604740206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04471737204487</v>
+        <v>1.04472663283333</v>
       </c>
       <c r="J4">
-        <v>0.9361096565656983</v>
+        <v>0.9362197652141813</v>
       </c>
       <c r="K4">
-        <v>1.043906754319001</v>
+        <v>1.043916144061708</v>
       </c>
       <c r="L4">
-        <v>0.942519071709556</v>
+        <v>0.942616936041206</v>
       </c>
       <c r="M4">
-        <v>0.9286311263393622</v>
+        <v>0.9287163514449563</v>
+      </c>
+      <c r="N4">
+        <v>0.9589835778300486</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9189546267321261</v>
+        <v>0.9190615791828158</v>
       </c>
       <c r="D5">
-        <v>1.035585711784865</v>
+        <v>1.035594550804766</v>
       </c>
       <c r="E5">
-        <v>0.9355129088065218</v>
+        <v>0.9356062770655834</v>
       </c>
       <c r="F5">
-        <v>0.9232998789585871</v>
+        <v>0.9233807300320827</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045700150203462</v>
+        <v>1.045708775778799</v>
       </c>
       <c r="J5">
-        <v>0.9401664043121716</v>
+        <v>0.9402700054238862</v>
       </c>
       <c r="K5">
-        <v>1.045058489306197</v>
+        <v>1.045067232911319</v>
       </c>
       <c r="L5">
-        <v>0.9462113855378311</v>
+        <v>0.9463034562154659</v>
       </c>
       <c r="M5">
-        <v>0.9341709501210819</v>
+        <v>0.9342506395985487</v>
+      </c>
+      <c r="N5">
+        <v>0.9617463740146008</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9197352073591789</v>
+        <v>0.9198410406334782</v>
       </c>
       <c r="D6">
-        <v>1.03581406102895</v>
+        <v>1.035822794417247</v>
       </c>
       <c r="E6">
-        <v>0.9361724879115578</v>
+        <v>0.9362648909649632</v>
       </c>
       <c r="F6">
-        <v>0.9242673850513285</v>
+        <v>0.9243473196358419</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045861807279528</v>
+        <v>1.04587033055854</v>
       </c>
       <c r="J6">
-        <v>0.9408355446942794</v>
+        <v>0.9409380853897144</v>
       </c>
       <c r="K6">
-        <v>1.04524839991762</v>
+        <v>1.045257039484764</v>
       </c>
       <c r="L6">
-        <v>0.9468205488147609</v>
+        <v>0.9469116756126388</v>
       </c>
       <c r="M6">
-        <v>0.9350825775168199</v>
+        <v>0.9351613717641936</v>
+      </c>
+      <c r="N6">
+        <v>0.9622020696915209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9142886887064404</v>
+        <v>0.9144024254182868</v>
       </c>
       <c r="D7">
-        <v>1.034223041479</v>
+        <v>1.034232527590828</v>
       </c>
       <c r="E7">
-        <v>0.9315714175632163</v>
+        <v>0.9316706321912577</v>
       </c>
       <c r="F7">
-        <v>0.9175019618457846</v>
+        <v>0.9175884053725837</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044730734602711</v>
+        <v>1.044739986596189</v>
       </c>
       <c r="J7">
-        <v>0.9361646914913754</v>
+        <v>0.9362747109306451</v>
       </c>
       <c r="K7">
-        <v>1.043922382367962</v>
+        <v>1.043931763163184</v>
       </c>
       <c r="L7">
-        <v>0.9425691533114372</v>
+        <v>0.9426669382057214</v>
       </c>
       <c r="M7">
-        <v>0.9287064289459981</v>
+        <v>0.928791577676718</v>
+      </c>
+      <c r="N7">
+        <v>0.959021059503807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8892019550562361</v>
+        <v>0.8893553615947812</v>
       </c>
       <c r="D8">
-        <v>1.026975204156261</v>
+        <v>1.026988711837814</v>
       </c>
       <c r="E8">
-        <v>0.9104144252623428</v>
+        <v>0.910547670975605</v>
       </c>
       <c r="F8">
-        <v>0.8859102515497158</v>
+        <v>0.8860307034381739</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039443750031802</v>
+        <v>1.039456887629209</v>
       </c>
       <c r="J8">
-        <v>0.9145973525231075</v>
+        <v>0.9147445861072376</v>
       </c>
       <c r="K8">
-        <v>1.037801767745528</v>
+        <v>1.037815104267582</v>
       </c>
       <c r="L8">
-        <v>0.9229621351292158</v>
+        <v>0.9230930882321674</v>
       </c>
       <c r="M8">
-        <v>0.8988948614759684</v>
+        <v>0.8990130887153178</v>
+      </c>
+      <c r="N8">
+        <v>0.9443321372819575</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8300197097099588</v>
+        <v>0.8303015952835096</v>
       </c>
       <c r="D9">
-        <v>1.010569281139233</v>
+        <v>1.010598631521169</v>
       </c>
       <c r="E9">
-        <v>0.8607485097081278</v>
+        <v>0.8609903957302726</v>
       </c>
       <c r="F9">
-        <v>0.808610519561361</v>
+        <v>0.8088571364037446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026709806742265</v>
+        <v>1.026738194058083</v>
       </c>
       <c r="J9">
-        <v>0.8634265224875231</v>
+        <v>0.8636914227771575</v>
       </c>
       <c r="K9">
-        <v>1.023493175381087</v>
+        <v>1.023522062258279</v>
       </c>
       <c r="L9">
-        <v>0.8765928135637714</v>
+        <v>0.8768288829338181</v>
       </c>
       <c r="M9">
-        <v>0.8258200082461234</v>
+        <v>0.8260596001038031</v>
+      </c>
+      <c r="N9">
+        <v>0.9095068841357056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D10">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E10">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F10">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J10">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K10">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L10">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M10">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N10">
+        <v>0.8662759908707475</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D11">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E11">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F11">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J11">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K11">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L11">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M11">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N11">
+        <v>0.8662759908707475</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D12">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E12">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F12">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J12">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K12">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L12">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M12">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N12">
+        <v>0.8662759908707475</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D13">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E13">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F13">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J13">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K13">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L13">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M13">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N13">
+        <v>0.8662759908707475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D14">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E14">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F14">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J14">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K14">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L14">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M14">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N14">
+        <v>0.8662759908707475</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D15">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E15">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F15">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J15">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K15">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L15">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M15">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N15">
+        <v>0.8662759908707475</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D16">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E16">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F16">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J16">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K16">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L16">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M16">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N16">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D17">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E17">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F17">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J17">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K17">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L17">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M17">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N17">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D18">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E18">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F18">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J18">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K18">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L18">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M18">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N18">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D19">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E19">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F19">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J19">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K19">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L19">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M19">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N19">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D20">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E20">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F20">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J20">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K20">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L20">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M20">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N20">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D21">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E21">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F21">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J21">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K21">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L21">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M21">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N21">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D22">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E22">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F22">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J22">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K22">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L22">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M22">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N22">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D23">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E23">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F23">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J23">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K23">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L23">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M23">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N23">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D24">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E24">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F24">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J24">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K24">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L24">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M24">
-        <v>0.7294061010164546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N24">
+        <v>0.8662759908707475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7567769078137552</v>
+        <v>0.7574699605164937</v>
       </c>
       <c r="D25">
-        <v>0.9919460906303658</v>
+        <v>0.9920471484773674</v>
       </c>
       <c r="E25">
-        <v>0.7997975218597583</v>
+        <v>0.8003799477062996</v>
       </c>
       <c r="F25">
-        <v>0.7064906299564448</v>
+        <v>0.7072676548338589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010915953700818</v>
+        <v>1.011013231237874</v>
       </c>
       <c r="J25">
-        <v>0.79957563408392</v>
+        <v>0.8002065148440759</v>
       </c>
       <c r="K25">
-        <v>1.006462299602423</v>
+        <v>1.00656149424771</v>
       </c>
       <c r="L25">
-        <v>0.8190503790728122</v>
+        <v>0.8196136496908303</v>
       </c>
       <c r="M25">
-        <v>0.7294061010164546</v>
+        <v>0.7301468525551521</v>
+      </c>
+      <c r="N25">
+        <v>0.8662759908707475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -417,984 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.8821710736152489</v>
-      </c>
-      <c r="D2">
-        <v>1.02493907298568</v>
+        <v>0.9034852472057211</v>
       </c>
       <c r="E2">
-        <v>0.9044999753158701</v>
+        <v>0.923829813157783</v>
       </c>
       <c r="F2">
-        <v>0.8768510770030938</v>
+        <v>0.9225564796466097</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.037923596216546</v>
-      </c>
       <c r="J2">
-        <v>0.9085542720182762</v>
-      </c>
-      <c r="K2">
-        <v>1.036061565486568</v>
+        <v>0.9289929142334662</v>
       </c>
       <c r="L2">
-        <v>0.9174722340546058</v>
+        <v>0.9364632423266415</v>
       </c>
       <c r="M2">
-        <v>0.890342059209649</v>
+        <v>0.9352116643891756</v>
       </c>
       <c r="N2">
-        <v>0.9401084846884988</v>
+        <v>0.9303121907286541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9024973905472988</v>
-      </c>
-      <c r="D3">
-        <v>1.030771820333329</v>
+        <v>0.9255769968235839</v>
       </c>
       <c r="E3">
-        <v>0.9216233922934002</v>
+        <v>0.9437366921686868</v>
       </c>
       <c r="F3">
-        <v>0.9026758941984397</v>
+        <v>0.9438975972658924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.04224290879378</v>
-      </c>
       <c r="J3">
-        <v>0.9260517614848763</v>
-      </c>
-      <c r="K3">
-        <v>1.041025545924765</v>
+        <v>0.948324815928802</v>
       </c>
       <c r="L3">
-        <v>0.933368111772233</v>
+        <v>0.9551439565480256</v>
       </c>
       <c r="M3">
-        <v>0.9147266872075769</v>
+        <v>0.9553024798308205</v>
       </c>
       <c r="N3">
-        <v>0.9520468389336482</v>
+        <v>0.9496715459417978</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.914338376125801</v>
-      </c>
-      <c r="D4">
-        <v>1.034213832010485</v>
+        <v>0.9386128447705657</v>
       </c>
       <c r="E4">
-        <v>0.9316165427959825</v>
+        <v>0.9554996270001649</v>
       </c>
       <c r="F4">
-        <v>0.917508604740206</v>
+        <v>0.9565122468108377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.04472663283333</v>
-      </c>
       <c r="J4">
-        <v>0.9362197652141813</v>
-      </c>
-      <c r="K4">
-        <v>1.043916144061708</v>
+        <v>0.959728790632986</v>
       </c>
       <c r="L4">
-        <v>0.942616936041206</v>
+        <v>0.9661665584108189</v>
       </c>
       <c r="M4">
-        <v>0.9287163514449563</v>
+        <v>0.9671655025466488</v>
       </c>
       <c r="N4">
-        <v>0.9589835778300486</v>
+        <v>0.9610917155981158</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9190615791828158</v>
-      </c>
-      <c r="D5">
-        <v>1.035594550804766</v>
+        <v>0.943842699304287</v>
       </c>
       <c r="E5">
-        <v>0.9356062770655834</v>
+        <v>0.9602217955498327</v>
       </c>
       <c r="F5">
-        <v>0.9233807300320827</v>
+        <v>0.9615775129418004</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.045708775778799</v>
-      </c>
       <c r="J5">
-        <v>0.9402700054238862</v>
-      </c>
-      <c r="K5">
-        <v>1.045067232911319</v>
+        <v>0.9643026543612067</v>
       </c>
       <c r="L5">
-        <v>0.9463034562154659</v>
+        <v>0.9705879104912186</v>
       </c>
       <c r="M5">
-        <v>0.9342506395985487</v>
+        <v>0.9719260108997637</v>
       </c>
       <c r="N5">
-        <v>0.9617463740146008</v>
+        <v>0.96567207473746</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9198410406334782</v>
-      </c>
-      <c r="D6">
-        <v>1.035822794417247</v>
+        <v>0.9447073359050101</v>
       </c>
       <c r="E6">
-        <v>0.9362648909649632</v>
+        <v>0.9610026521477714</v>
       </c>
       <c r="F6">
-        <v>0.9243473196358419</v>
+        <v>0.96241517766528</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.04587033055854</v>
-      </c>
       <c r="J6">
-        <v>0.9409380853897144</v>
-      </c>
-      <c r="K6">
-        <v>1.045257039484764</v>
+        <v>0.9650587495341435</v>
       </c>
       <c r="L6">
-        <v>0.9469116756126388</v>
+        <v>0.9713188155113504</v>
       </c>
       <c r="M6">
-        <v>0.9351613717641936</v>
+        <v>0.9727131043544851</v>
       </c>
       <c r="N6">
-        <v>0.9622020696915209</v>
+        <v>0.9664292436522677</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9144024254182868</v>
-      </c>
-      <c r="D7">
-        <v>1.034232527590828</v>
+        <v>0.938683654100013</v>
       </c>
       <c r="E7">
-        <v>0.9316706321912577</v>
+        <v>0.9555635516102206</v>
       </c>
       <c r="F7">
-        <v>0.9175884053725837</v>
+        <v>0.9565808110653397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.044739986596189</v>
-      </c>
       <c r="J7">
-        <v>0.9362747109306451</v>
-      </c>
-      <c r="K7">
-        <v>1.043931763163184</v>
+        <v>0.9597907239650664</v>
       </c>
       <c r="L7">
-        <v>0.9426669382057214</v>
+        <v>0.9662264250800537</v>
       </c>
       <c r="M7">
-        <v>0.928791577676718</v>
+        <v>0.9672299532717326</v>
       </c>
       <c r="N7">
-        <v>0.959021059503807</v>
+        <v>0.9611537368826314</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.8893553615947812</v>
-      </c>
-      <c r="D8">
-        <v>1.026988711837814</v>
+        <v>0.9112482425627456</v>
       </c>
       <c r="E8">
-        <v>0.910547670975605</v>
+        <v>0.930820759265482</v>
       </c>
       <c r="F8">
-        <v>0.8860307034381739</v>
+        <v>0.9300503029217971</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.039456887629209</v>
-      </c>
       <c r="J8">
-        <v>0.9147445861072376</v>
-      </c>
-      <c r="K8">
-        <v>1.037815104267582</v>
+        <v>0.9357864648915151</v>
       </c>
       <c r="L8">
-        <v>0.9230930882321674</v>
+        <v>0.9430271837788524</v>
       </c>
       <c r="M8">
-        <v>0.8990130887153178</v>
+        <v>0.9422692633736223</v>
       </c>
       <c r="N8">
-        <v>0.9443321372819575</v>
+        <v>0.9371153890078687</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.8303015952835096</v>
-      </c>
-      <c r="D9">
-        <v>1.010598631521169</v>
+        <v>0.8495197395573738</v>
       </c>
       <c r="E9">
-        <v>0.8609903957302726</v>
+        <v>0.875386951048725</v>
       </c>
       <c r="F9">
-        <v>0.8088571364037446</v>
+        <v>0.8706365732064129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.026738194058083</v>
-      </c>
       <c r="J9">
-        <v>0.8636914227771575</v>
-      </c>
-      <c r="K9">
-        <v>1.023522062258279</v>
+        <v>0.8817902757253021</v>
       </c>
       <c r="L9">
-        <v>0.8768288829338181</v>
+        <v>0.8908869758688528</v>
       </c>
       <c r="M9">
-        <v>0.8260596001038031</v>
+        <v>0.8862466231366727</v>
       </c>
       <c r="N9">
-        <v>0.9095068841357056</v>
+        <v>0.8830425190595904</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D10">
-        <v>0.9920471484773674</v>
+        <v>0.787641704233368</v>
       </c>
       <c r="E10">
-        <v>0.8003799477062996</v>
+        <v>0.8202778266415347</v>
       </c>
       <c r="F10">
-        <v>0.7072676548338589</v>
+        <v>0.8115382626999996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J10">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K10">
-        <v>1.00656149424771</v>
+        <v>0.8278293337804938</v>
       </c>
       <c r="L10">
-        <v>0.8196136496908303</v>
+        <v>0.8388796147448945</v>
       </c>
       <c r="M10">
-        <v>0.7301468525551521</v>
+        <v>0.8304123212365203</v>
       </c>
       <c r="N10">
-        <v>0.8662759908707475</v>
+        <v>0.8290049463878139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D11">
-        <v>0.9920471484773674</v>
+        <v>0.7450049319742663</v>
       </c>
       <c r="E11">
-        <v>0.8003799477062996</v>
+        <v>0.7826695060966087</v>
       </c>
       <c r="F11">
-        <v>0.7072676548338589</v>
+        <v>0.7711506535341243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J11">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K11">
-        <v>1.00656149424771</v>
+        <v>0.7908373758455466</v>
       </c>
       <c r="L11">
-        <v>0.8196136496908303</v>
+        <v>0.803309276377231</v>
       </c>
       <c r="M11">
-        <v>0.7301468525551521</v>
+        <v>0.7922214419209105</v>
       </c>
       <c r="N11">
-        <v>0.8662759908707475</v>
+        <v>0.7919604556295621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D12">
-        <v>0.9920471484773674</v>
+        <v>0.7209664974041788</v>
       </c>
       <c r="E12">
-        <v>0.8003799477062996</v>
+        <v>0.761630124752629</v>
       </c>
       <c r="F12">
-        <v>0.7072676548338589</v>
+        <v>0.7485259446155124</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J12">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K12">
-        <v>1.00656149424771</v>
+        <v>0.7700773852985986</v>
       </c>
       <c r="L12">
-        <v>0.8196136496908303</v>
+        <v>0.7833847529151551</v>
       </c>
       <c r="M12">
-        <v>0.7301468525551521</v>
+        <v>0.7708212580781595</v>
       </c>
       <c r="N12">
-        <v>0.8662759908707475</v>
+        <v>0.7711709835148333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D13">
-        <v>0.9920471484773674</v>
+        <v>0.7269206326088848</v>
       </c>
       <c r="E13">
-        <v>0.8003799477062996</v>
+        <v>0.7668291811342139</v>
       </c>
       <c r="F13">
-        <v>0.7072676548338589</v>
+        <v>0.7541191228442784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J13">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K13">
-        <v>1.00656149424771</v>
+        <v>0.7752120707434389</v>
       </c>
       <c r="L13">
-        <v>0.8196136496908303</v>
+        <v>0.7883099749873651</v>
       </c>
       <c r="M13">
-        <v>0.7301468525551521</v>
+        <v>0.7761119646516055</v>
       </c>
       <c r="N13">
-        <v>0.8662759908707475</v>
+        <v>0.7763129608019619</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D14">
-        <v>0.9920471484773674</v>
+        <v>0.7433031296986401</v>
       </c>
       <c r="E14">
-        <v>0.8003799477062996</v>
+        <v>0.7811758249858869</v>
       </c>
       <c r="F14">
-        <v>0.7072676548338589</v>
+        <v>0.7695452307753138</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J14">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K14">
-        <v>1.00656149424771</v>
+        <v>0.7893651522980253</v>
       </c>
       <c r="L14">
-        <v>0.8196136496908303</v>
+        <v>0.8018953327687961</v>
       </c>
       <c r="M14">
-        <v>0.7301468525551521</v>
+        <v>0.7907030121722758</v>
       </c>
       <c r="N14">
-        <v>0.8662759908707475</v>
+        <v>0.7904861413557368</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D15">
-        <v>0.9920471484773674</v>
+        <v>0.7518350756968368</v>
       </c>
       <c r="E15">
-        <v>0.8003799477062996</v>
+        <v>0.7886704516760569</v>
       </c>
       <c r="F15">
-        <v>0.7072676548338589</v>
+        <v>0.7775993757691791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J15">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K15">
-        <v>1.00656149424771</v>
+        <v>0.7967497039779686</v>
       </c>
       <c r="L15">
-        <v>0.8196136496908303</v>
+        <v>0.8089889603479293</v>
       </c>
       <c r="M15">
-        <v>0.7301468525551521</v>
+        <v>0.7983205287508157</v>
       </c>
       <c r="N15">
-        <v>0.8662759908707475</v>
+        <v>0.7978811799460854</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D16">
-        <v>0.9920471484773674</v>
+        <v>0.7899194784997167</v>
       </c>
       <c r="E16">
-        <v>0.8003799477062996</v>
+        <v>0.8222962284916548</v>
       </c>
       <c r="F16">
-        <v>0.7072676548338589</v>
+        <v>0.8137042110658929</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J16">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K16">
-        <v>1.00656149424771</v>
+        <v>0.8298106848669625</v>
       </c>
       <c r="L16">
-        <v>0.8196136496908303</v>
+        <v>0.8407869415054352</v>
       </c>
       <c r="M16">
-        <v>0.7301468525551521</v>
+        <v>0.8324598810953131</v>
       </c>
       <c r="N16">
-        <v>0.8662759908707475</v>
+        <v>0.8309891112200896</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D17">
-        <v>0.9920471484773674</v>
+        <v>0.8083370133045005</v>
       </c>
       <c r="E17">
-        <v>0.8003799477062996</v>
+        <v>0.8386473365705359</v>
       </c>
       <c r="F17">
-        <v>0.7072676548338589</v>
+        <v>0.8312457579808378</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J17">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K17">
-        <v>1.00656149424771</v>
+        <v>0.8458473866903501</v>
       </c>
       <c r="L17">
-        <v>0.8196136496908303</v>
+        <v>0.8562314911033422</v>
       </c>
       <c r="M17">
-        <v>0.7301468525551521</v>
+        <v>0.8490397128150621</v>
       </c>
       <c r="N17">
-        <v>0.8662759908707475</v>
+        <v>0.8470485869995016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D18">
-        <v>0.9920471484773674</v>
+        <v>0.8179326152344936</v>
       </c>
       <c r="E18">
-        <v>0.8003799477062996</v>
+        <v>0.8471868915855116</v>
       </c>
       <c r="F18">
-        <v>0.7072676548338589</v>
+        <v>0.8404040239068156</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J18">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K18">
-        <v>1.00656149424771</v>
+        <v>0.8542128016830551</v>
       </c>
       <c r="L18">
-        <v>0.8196136496908303</v>
+        <v>0.8642926547138939</v>
       </c>
       <c r="M18">
-        <v>0.7301468525551521</v>
+        <v>0.8576935411348501</v>
       </c>
       <c r="N18">
-        <v>0.8662759908707475</v>
+        <v>0.855425881841023</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D19">
-        <v>0.9920471484773674</v>
+        <v>0.8210496696911945</v>
       </c>
       <c r="E19">
-        <v>0.8003799477062996</v>
+        <v>0.8499637617784433</v>
       </c>
       <c r="F19">
-        <v>0.7072676548338589</v>
+        <v>0.8433817029435616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J19">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K19">
-        <v>1.00656149424771</v>
+        <v>0.8569315946458602</v>
       </c>
       <c r="L19">
-        <v>0.8196136496908303</v>
+        <v>0.8669132061602818</v>
       </c>
       <c r="M19">
-        <v>0.7301468525551521</v>
+        <v>0.8605068205125509</v>
       </c>
       <c r="N19">
-        <v>0.8662759908707475</v>
+        <v>0.8581485358016852</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D20">
-        <v>0.9920471484773674</v>
+        <v>0.8064903838957032</v>
       </c>
       <c r="E20">
-        <v>0.8003799477062996</v>
+        <v>0.8370055069344318</v>
       </c>
       <c r="F20">
-        <v>0.7072676548338589</v>
+        <v>0.8294847550332495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J20">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K20">
-        <v>1.00656149424771</v>
+        <v>0.8442382617452286</v>
       </c>
       <c r="L20">
-        <v>0.8196136496908303</v>
+        <v>0.8546812425814427</v>
       </c>
       <c r="M20">
-        <v>0.7301468525551521</v>
+        <v>0.8473755101394026</v>
       </c>
       <c r="N20">
-        <v>0.8662759908707475</v>
+        <v>0.8454371769123888</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D21">
-        <v>0.9920471484773674</v>
+        <v>0.738864537092601</v>
       </c>
       <c r="E21">
-        <v>0.8003799477062996</v>
+        <v>0.7772829627089959</v>
       </c>
       <c r="F21">
-        <v>0.7072676548338589</v>
+        <v>0.7653605900820081</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J21">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K21">
-        <v>1.00656149424771</v>
+        <v>0.7855270728569287</v>
       </c>
       <c r="L21">
-        <v>0.8196136496908303</v>
+        <v>0.798209860308815</v>
       </c>
       <c r="M21">
-        <v>0.7301468525551521</v>
+        <v>0.7867450402507484</v>
       </c>
       <c r="N21">
-        <v>0.8662759908707475</v>
+        <v>0.7866426114016</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D22">
-        <v>0.9920471484773674</v>
+        <v>0.738864537092601</v>
       </c>
       <c r="E22">
-        <v>0.8003799477062996</v>
+        <v>0.7772829627089959</v>
       </c>
       <c r="F22">
-        <v>0.7072676548338589</v>
+        <v>0.7653605900820081</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J22">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K22">
-        <v>1.00656149424771</v>
+        <v>0.7855270728569287</v>
       </c>
       <c r="L22">
-        <v>0.8196136496908303</v>
+        <v>0.798209860308815</v>
       </c>
       <c r="M22">
-        <v>0.7301468525551521</v>
+        <v>0.7867450402507484</v>
       </c>
       <c r="N22">
-        <v>0.8662759908707475</v>
+        <v>0.7866426114016</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D23">
-        <v>0.9920471484773674</v>
+        <v>0.697497344148359</v>
       </c>
       <c r="E23">
-        <v>0.8003799477062996</v>
+        <v>0.7412226133423204</v>
       </c>
       <c r="F23">
-        <v>0.7072676548338589</v>
+        <v>0.7265546656868571</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J23">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K23">
-        <v>1.00656149424771</v>
+        <v>0.7498909514715224</v>
       </c>
       <c r="L23">
-        <v>0.8196136496908303</v>
+        <v>0.7640414911347519</v>
       </c>
       <c r="M23">
-        <v>0.7301468525551521</v>
+        <v>0.750037209525687</v>
       </c>
       <c r="N23">
-        <v>0.8662759908707475</v>
+        <v>0.7509558826363063</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D24">
-        <v>0.9920471484773674</v>
+        <v>0.8073281821673755</v>
       </c>
       <c r="E24">
-        <v>0.8003799477062996</v>
+        <v>0.8377503255348097</v>
       </c>
       <c r="F24">
-        <v>0.7072676548338589</v>
+        <v>0.8302836459988231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J24">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K24">
-        <v>1.00656149424771</v>
+        <v>0.8449682749473365</v>
       </c>
       <c r="L24">
-        <v>0.8196136496908303</v>
+        <v>0.8553845308596613</v>
       </c>
       <c r="M24">
-        <v>0.7301468525551521</v>
+        <v>0.848130494512223</v>
       </c>
       <c r="N24">
-        <v>0.8662759908707475</v>
+        <v>0.8461682268169776</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.7574699605164937</v>
-      </c>
-      <c r="D25">
-        <v>0.9920471484773674</v>
+        <v>0.8677787876020356</v>
       </c>
       <c r="E25">
-        <v>0.8003799477062996</v>
+        <v>0.8917438780402244</v>
       </c>
       <c r="F25">
-        <v>0.7072676548338589</v>
+        <v>0.8881677644072337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.011013231237874</v>
-      </c>
       <c r="J25">
-        <v>0.8002065148440759</v>
-      </c>
-      <c r="K25">
-        <v>1.00656149424771</v>
+        <v>0.8977528231647955</v>
       </c>
       <c r="L25">
-        <v>0.8196136496908303</v>
+        <v>0.9062925846414356</v>
       </c>
       <c r="M25">
-        <v>0.7301468525551521</v>
+        <v>0.9027916433409402</v>
       </c>
       <c r="N25">
-        <v>0.8662759908707475</v>
+        <v>0.8990277351473778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -417,696 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9034852472057211</v>
+        <v>1.008184966181761</v>
+      </c>
+      <c r="D2">
+        <v>1.046576569802465</v>
       </c>
       <c r="E2">
-        <v>0.923829813157783</v>
+        <v>1.013369637065657</v>
       </c>
       <c r="F2">
-        <v>0.9225564796466097</v>
+        <v>1.046427890968762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.057480186041034</v>
+      </c>
       <c r="J2">
-        <v>0.9289929142334662</v>
+        <v>1.030123592270234</v>
+      </c>
+      <c r="K2">
+        <v>1.05742302621962</v>
       </c>
       <c r="L2">
-        <v>0.9364632423266415</v>
+        <v>1.024645801641043</v>
       </c>
       <c r="M2">
-        <v>0.9352116643891756</v>
+        <v>1.057276195594888</v>
       </c>
       <c r="N2">
-        <v>0.9303121907286541</v>
+        <v>1.01353266255407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9255769968235839</v>
+        <v>1.013233582913931</v>
+      </c>
+      <c r="D3">
+        <v>1.049927438209323</v>
       </c>
       <c r="E3">
-        <v>0.9437366921686868</v>
+        <v>1.017455879470591</v>
       </c>
       <c r="F3">
-        <v>0.9438975972658924</v>
+        <v>1.050469832905602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.05924753187482</v>
+      </c>
       <c r="J3">
-        <v>0.948324815928802</v>
+        <v>1.03336987489178</v>
+      </c>
+      <c r="K3">
+        <v>1.059958987019687</v>
       </c>
       <c r="L3">
-        <v>0.9551439565480256</v>
+        <v>1.027870176612663</v>
       </c>
       <c r="M3">
-        <v>0.9553024798308205</v>
+        <v>1.060495236188297</v>
       </c>
       <c r="N3">
-        <v>0.9496715459417978</v>
+        <v>1.014650963245506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9386128447705657</v>
+        <v>1.016428979132689</v>
+      </c>
+      <c r="D4">
+        <v>1.052052458384329</v>
       </c>
       <c r="E4">
-        <v>0.9554996270001649</v>
+        <v>1.020048054362621</v>
       </c>
       <c r="F4">
-        <v>0.9565122468108377</v>
+        <v>1.053034597651542</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.060356486883885</v>
+      </c>
       <c r="J4">
-        <v>0.959728790632986</v>
+        <v>1.035421566016553</v>
+      </c>
+      <c r="K4">
+        <v>1.061560764776212</v>
       </c>
       <c r="L4">
-        <v>0.9661665584108189</v>
+        <v>1.029910391629152</v>
       </c>
       <c r="M4">
-        <v>0.9671655025466488</v>
+        <v>1.062532456414468</v>
       </c>
       <c r="N4">
-        <v>0.9610917155981158</v>
+        <v>1.015357233509064</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.943842699304287</v>
+        <v>1.017755895018566</v>
+      </c>
+      <c r="D5">
+        <v>1.052935801208679</v>
       </c>
       <c r="E5">
-        <v>0.9602217955498327</v>
+        <v>1.021125838893158</v>
       </c>
       <c r="F5">
-        <v>0.9615775129418004</v>
+        <v>1.054101116759537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.060814623215316</v>
+      </c>
       <c r="J5">
-        <v>0.9643026543612067</v>
+        <v>1.036272796944354</v>
+      </c>
+      <c r="K5">
+        <v>1.062225056099099</v>
       </c>
       <c r="L5">
-        <v>0.9705879104912186</v>
+        <v>1.03075742771334</v>
       </c>
       <c r="M5">
-        <v>0.9719260108997637</v>
+        <v>1.063378309647752</v>
       </c>
       <c r="N5">
-        <v>0.96567207473746</v>
+        <v>1.015650129661712</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9447073359050101</v>
+        <v>1.017977745269508</v>
+      </c>
+      <c r="D6">
+        <v>1.05308354032424</v>
       </c>
       <c r="E6">
-        <v>0.9610026521477714</v>
+        <v>1.021306114860422</v>
       </c>
       <c r="F6">
-        <v>0.96241517766528</v>
+        <v>1.054279515144167</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.060891079465099</v>
+      </c>
       <c r="J6">
-        <v>0.9650587495341435</v>
+        <v>1.036415070945419</v>
+      </c>
+      <c r="K6">
+        <v>1.062336067967512</v>
       </c>
       <c r="L6">
-        <v>0.9713188155113504</v>
+        <v>1.030899033846221</v>
       </c>
       <c r="M6">
-        <v>0.9727131043544851</v>
+        <v>1.063519720718126</v>
       </c>
       <c r="N6">
-        <v>0.9664292436522677</v>
+        <v>1.01569907620858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.938683654100013</v>
+        <v>1.016446773149093</v>
+      </c>
+      <c r="D7">
+        <v>1.052064300583363</v>
       </c>
       <c r="E7">
-        <v>0.9555635516102206</v>
+        <v>1.020062502199943</v>
       </c>
       <c r="F7">
-        <v>0.9565808110653397</v>
+        <v>1.053048894000844</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.060362639939389</v>
+      </c>
       <c r="J7">
-        <v>0.9597907239650664</v>
+        <v>1.035432984093419</v>
+      </c>
+      <c r="K7">
+        <v>1.061569676451864</v>
       </c>
       <c r="L7">
-        <v>0.9662264250800537</v>
+        <v>1.029921751201143</v>
       </c>
       <c r="M7">
-        <v>0.9672299532717326</v>
+        <v>1.062543799923934</v>
       </c>
       <c r="N7">
-        <v>0.9611537368826314</v>
+        <v>1.015361162826665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9112482425627456</v>
+        <v>1.009906364426488</v>
+      </c>
+      <c r="D8">
+        <v>1.047718163877961</v>
       </c>
       <c r="E8">
-        <v>0.930820759265482</v>
+        <v>1.01476163137218</v>
       </c>
       <c r="F8">
-        <v>0.9300503029217971</v>
+        <v>1.047804627149422</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.058084778946011</v>
+      </c>
       <c r="J8">
-        <v>0.9357864648915151</v>
+        <v>1.031231055399156</v>
+      </c>
+      <c r="K8">
+        <v>1.05828834651061</v>
       </c>
       <c r="L8">
-        <v>0.9430271837788524</v>
+        <v>1.025745291676892</v>
       </c>
       <c r="M8">
-        <v>0.9422692633736223</v>
+        <v>1.058373767482354</v>
       </c>
       <c r="N8">
-        <v>0.9371153890078687</v>
+        <v>1.013914271078105</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8495197395573738</v>
+        <v>0.997802703876242</v>
+      </c>
+      <c r="D9">
+        <v>1.039712993092054</v>
       </c>
       <c r="E9">
-        <v>0.875386951048725</v>
+        <v>1.005001439632497</v>
       </c>
       <c r="F9">
-        <v>0.8706365732064129</v>
+        <v>1.038155878944877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.053794930138458</v>
+      </c>
       <c r="J9">
-        <v>0.8817902757253021</v>
+        <v>1.023433293651785</v>
+      </c>
+      <c r="K9">
+        <v>1.052193014771275</v>
       </c>
       <c r="L9">
-        <v>0.8908869758688528</v>
+        <v>1.018013889816064</v>
       </c>
       <c r="M9">
-        <v>0.8862466231366727</v>
+        <v>1.050658815631163</v>
       </c>
       <c r="N9">
-        <v>0.8830425190595904</v>
+        <v>1.011225472488931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.787641704233368</v>
+        <v>0.9892967606676341</v>
+      </c>
+      <c r="D10">
+        <v>1.034119601920767</v>
       </c>
       <c r="E10">
-        <v>0.8202778266415347</v>
+        <v>0.9981798728120956</v>
       </c>
       <c r="F10">
-        <v>0.8115382626999996</v>
+        <v>1.031419681698303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.05073345355298</v>
+      </c>
       <c r="J10">
-        <v>0.8278293337804938</v>
+        <v>1.017941566371261</v>
+      </c>
+      <c r="K10">
+        <v>1.047898981864105</v>
       </c>
       <c r="L10">
-        <v>0.8388796147448945</v>
+        <v>1.012582068165428</v>
       </c>
       <c r="M10">
-        <v>0.8304123212365203</v>
+        <v>1.045243907263889</v>
       </c>
       <c r="N10">
-        <v>0.8290049463878139</v>
+        <v>1.009329831543156</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7450049319742663</v>
+        <v>0.9854982459512261</v>
+      </c>
+      <c r="D11">
+        <v>1.031631023599279</v>
       </c>
       <c r="E11">
-        <v>0.7826695060966087</v>
+        <v>0.9951433842120468</v>
       </c>
       <c r="F11">
-        <v>0.7711506535341243</v>
+        <v>1.028423597869701</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.049356068681461</v>
+      </c>
       <c r="J11">
-        <v>0.7908373758455466</v>
+        <v>1.015487011557925</v>
+      </c>
+      <c r="K11">
+        <v>1.045980100807711</v>
       </c>
       <c r="L11">
-        <v>0.803309276377231</v>
+        <v>1.010157474074433</v>
       </c>
       <c r="M11">
-        <v>0.7922214419209105</v>
+        <v>1.042828681587231</v>
       </c>
       <c r="N11">
-        <v>0.7919604556295621</v>
+        <v>1.008482209052983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7209664974041788</v>
+        <v>0.9840688799146555</v>
+      </c>
+      <c r="D12">
+        <v>1.030696120389201</v>
       </c>
       <c r="E12">
-        <v>0.761630124752629</v>
+        <v>0.9940023279672726</v>
       </c>
       <c r="F12">
-        <v>0.7485259446155124</v>
+        <v>1.027298144030258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.048836308563037</v>
+      </c>
       <c r="J12">
-        <v>0.7700773852985986</v>
+        <v>1.014563118915158</v>
+      </c>
+      <c r="K12">
+        <v>1.045257948963014</v>
       </c>
       <c r="L12">
-        <v>0.7833847529151551</v>
+        <v>1.009245343100244</v>
       </c>
       <c r="M12">
-        <v>0.7708212580781595</v>
+        <v>1.04192039832535</v>
       </c>
       <c r="N12">
-        <v>0.7711709835148333</v>
+        <v>1.008163121401081</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7269206326088848</v>
+        <v>0.9843763362383984</v>
+      </c>
+      <c r="D13">
+        <v>1.030897145913968</v>
       </c>
       <c r="E13">
-        <v>0.7668291811342139</v>
+        <v>0.994247696912843</v>
       </c>
       <c r="F13">
-        <v>0.7541191228442784</v>
+        <v>1.027540137981491</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.048948173288109</v>
+      </c>
       <c r="J13">
-        <v>0.7752120707434389</v>
+        <v>1.014761858421897</v>
+      </c>
+      <c r="K13">
+        <v>1.045413285669767</v>
       </c>
       <c r="L13">
-        <v>0.7883099749873651</v>
+        <v>1.009441530557424</v>
       </c>
       <c r="M13">
-        <v>0.7761119646516055</v>
+        <v>1.042115742745332</v>
       </c>
       <c r="N13">
-        <v>0.7763129608019619</v>
+        <v>1.008231762457273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7433031296986401</v>
+        <v>0.9853804766803276</v>
+      </c>
+      <c r="D14">
+        <v>1.031553962298455</v>
       </c>
       <c r="E14">
-        <v>0.7811758249858869</v>
+        <v>0.995049337298209</v>
       </c>
       <c r="F14">
-        <v>0.7695452307753138</v>
+        <v>1.028330828055519</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.049313273365042</v>
+      </c>
       <c r="J14">
-        <v>0.7893651522980253</v>
+        <v>1.015410894358739</v>
+      </c>
+      <c r="K14">
+        <v>1.045920601863194</v>
       </c>
       <c r="L14">
-        <v>0.8018953327687961</v>
+        <v>1.010082316011373</v>
       </c>
       <c r="M14">
-        <v>0.7907030121722758</v>
+        <v>1.042753833699713</v>
       </c>
       <c r="N14">
-        <v>0.7904861413557368</v>
+        <v>1.008455921037092</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7518350756968368</v>
+        <v>0.9859966845924504</v>
+      </c>
+      <c r="D15">
+        <v>1.031957236185566</v>
       </c>
       <c r="E15">
-        <v>0.7886704516760569</v>
+        <v>0.9955414861366277</v>
       </c>
       <c r="F15">
-        <v>0.7775993757691791</v>
+        <v>1.028816311248619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.049537133843981</v>
+      </c>
       <c r="J15">
-        <v>0.7967497039779686</v>
+        <v>1.015809154866943</v>
+      </c>
+      <c r="K15">
+        <v>1.046231917308851</v>
       </c>
       <c r="L15">
-        <v>0.8089889603479293</v>
+        <v>1.01047557789794</v>
       </c>
       <c r="M15">
-        <v>0.7983205287508157</v>
+        <v>1.043145486083188</v>
       </c>
       <c r="N15">
-        <v>0.7978811799460854</v>
+        <v>1.008593463532064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.7899194784997167</v>
+        <v>0.9895463332166151</v>
+      </c>
+      <c r="D16">
+        <v>1.034283313219581</v>
       </c>
       <c r="E16">
-        <v>0.8222962284916548</v>
+        <v>0.9983795898731758</v>
       </c>
       <c r="F16">
-        <v>0.8137042110658929</v>
+        <v>1.031616796130117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.050823745404088</v>
+      </c>
       <c r="J16">
-        <v>0.8298106848669625</v>
+        <v>1.018102798592767</v>
+      </c>
+      <c r="K16">
+        <v>1.048025039724823</v>
       </c>
       <c r="L16">
-        <v>0.8407869415054352</v>
+        <v>1.012741399113056</v>
       </c>
       <c r="M16">
-        <v>0.8324598810953131</v>
+        <v>1.045402664578863</v>
       </c>
       <c r="N16">
-        <v>0.8309891112200896</v>
+        <v>1.00938550273379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8083370133045005</v>
+        <v>0.9917412974443497</v>
+      </c>
+      <c r="D17">
+        <v>1.035724207523849</v>
       </c>
       <c r="E17">
-        <v>0.8386473365705359</v>
+        <v>1.000137207497898</v>
       </c>
       <c r="F17">
-        <v>0.8312457579808378</v>
+        <v>1.033351789536079</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.051616700848801</v>
+      </c>
       <c r="J17">
-        <v>0.8458473866903501</v>
+        <v>1.019520587089673</v>
+      </c>
+      <c r="K17">
+        <v>1.049133571639518</v>
       </c>
       <c r="L17">
-        <v>0.8562314911033422</v>
+        <v>1.014142831397394</v>
       </c>
       <c r="M17">
-        <v>0.8490397128150621</v>
+        <v>1.046799263868532</v>
       </c>
       <c r="N17">
-        <v>0.8470485869995016</v>
+        <v>1.009875005668907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8179326152344936</v>
+        <v>0.9930105282867505</v>
+      </c>
+      <c r="D18">
+        <v>1.036558268219444</v>
       </c>
       <c r="E18">
-        <v>0.8471868915855116</v>
+        <v>1.001154469434918</v>
       </c>
       <c r="F18">
-        <v>0.8404040239068156</v>
+        <v>1.034356181335532</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.052074251681992</v>
+      </c>
       <c r="J18">
-        <v>0.8542128016830551</v>
+        <v>1.020340215028361</v>
+      </c>
+      <c r="K18">
+        <v>1.049774447219394</v>
       </c>
       <c r="L18">
-        <v>0.8642926547138939</v>
+        <v>1.014953304943814</v>
       </c>
       <c r="M18">
-        <v>0.8576935411348501</v>
+        <v>1.047607111292761</v>
       </c>
       <c r="N18">
-        <v>0.855425881841023</v>
+        <v>1.010157954404838</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8210496696911945</v>
+        <v>0.9934414599231141</v>
+      </c>
+      <c r="D19">
+        <v>1.036841593158929</v>
       </c>
       <c r="E19">
-        <v>0.8499637617784433</v>
+        <v>1.001500006622152</v>
       </c>
       <c r="F19">
-        <v>0.8433817029435616</v>
+        <v>1.034697383236749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.05222943286025</v>
+      </c>
       <c r="J19">
-        <v>0.8569315946458602</v>
+        <v>1.020618460300283</v>
+      </c>
+      <c r="K19">
+        <v>1.049992013419454</v>
       </c>
       <c r="L19">
-        <v>0.8669132061602818</v>
+        <v>1.015228493428952</v>
       </c>
       <c r="M19">
-        <v>0.8605068205125509</v>
+        <v>1.047881435312915</v>
       </c>
       <c r="N19">
-        <v>0.8581485358016852</v>
+        <v>1.010254003000256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8064903838957032</v>
+        <v>0.9915069496119303</v>
+      </c>
+      <c r="D20">
+        <v>1.03557027769525</v>
       </c>
       <c r="E20">
-        <v>0.8370055069344318</v>
+        <v>0.9999494568478494</v>
       </c>
       <c r="F20">
-        <v>0.8294847550332495</v>
+        <v>1.033166431976291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.051532140500816</v>
+      </c>
       <c r="J20">
-        <v>0.8442382617452286</v>
+        <v>1.019369235996048</v>
+      </c>
+      <c r="K20">
+        <v>1.049015230649675</v>
       </c>
       <c r="L20">
-        <v>0.8546812425814427</v>
+        <v>1.013993195054293</v>
       </c>
       <c r="M20">
-        <v>0.8473755101394026</v>
+        <v>1.046650125691074</v>
       </c>
       <c r="N20">
-        <v>0.8454371769123888</v>
+        <v>1.009822753982039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.738864537092601</v>
+        <v>0.9850853002902783</v>
+      </c>
+      <c r="D21">
+        <v>1.031360841482327</v>
       </c>
       <c r="E21">
-        <v>0.7772829627089959</v>
+        <v>0.9948136439809525</v>
       </c>
       <c r="F21">
-        <v>0.7653605900820081</v>
+        <v>1.028098342263962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.049205988205697</v>
+      </c>
       <c r="J21">
-        <v>0.7855270728569287</v>
+        <v>1.015220110680099</v>
+      </c>
+      <c r="K21">
+        <v>1.045771472987377</v>
       </c>
       <c r="L21">
-        <v>0.798209860308815</v>
+        <v>1.009893944178352</v>
       </c>
       <c r="M21">
-        <v>0.7867450402507484</v>
+        <v>1.042566244655912</v>
       </c>
       <c r="N21">
-        <v>0.7866426114016</v>
+        <v>1.008390030875532</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.738864537092601</v>
+        <v>0.9809405249016377</v>
+      </c>
+      <c r="D22">
+        <v>1.028652962349771</v>
       </c>
       <c r="E22">
-        <v>0.7772829627089959</v>
+        <v>0.9915079503821177</v>
       </c>
       <c r="F22">
-        <v>0.7653605900820081</v>
+        <v>1.024838711645677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.047696158523059</v>
+      </c>
       <c r="J22">
-        <v>0.7855270728569287</v>
+        <v>1.012540665011147</v>
+      </c>
+      <c r="K22">
+        <v>1.043677395290561</v>
       </c>
       <c r="L22">
-        <v>0.798209860308815</v>
+        <v>1.007249534645083</v>
       </c>
       <c r="M22">
-        <v>0.7867450402507484</v>
+        <v>1.03993366192391</v>
       </c>
       <c r="N22">
-        <v>0.7866426114016</v>
+        <v>1.00746455257003</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.697497344148359</v>
+        <v>0.983148301581133</v>
+      </c>
+      <c r="D23">
+        <v>1.030094451829582</v>
       </c>
       <c r="E23">
-        <v>0.7412226133423204</v>
+        <v>0.9932678860015743</v>
       </c>
       <c r="F23">
-        <v>0.7265546656868571</v>
+        <v>1.026573870229757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.048501158904892</v>
+      </c>
       <c r="J23">
-        <v>0.7498909514715224</v>
+        <v>1.013968025755973</v>
+      </c>
+      <c r="K23">
+        <v>1.044792839871391</v>
       </c>
       <c r="L23">
-        <v>0.7640414911347519</v>
+        <v>1.008657963124662</v>
       </c>
       <c r="M23">
-        <v>0.750037209525687</v>
+        <v>1.041335593796343</v>
       </c>
       <c r="N23">
-        <v>0.7509558826363063</v>
+        <v>1.007957581401613</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8073281821673755</v>
+        <v>0.9916128753918849</v>
+      </c>
+      <c r="D24">
+        <v>1.035639851663242</v>
       </c>
       <c r="E24">
-        <v>0.8377503255348097</v>
+        <v>1.000034317726504</v>
       </c>
       <c r="F24">
-        <v>0.8302836459988231</v>
+        <v>1.03325021051831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.051570365003986</v>
+      </c>
       <c r="J24">
-        <v>0.8449682749473365</v>
+        <v>1.01943764768802</v>
+      </c>
+      <c r="K24">
+        <v>1.049068721469093</v>
       </c>
       <c r="L24">
-        <v>0.8553845308596613</v>
+        <v>1.014060830733911</v>
       </c>
       <c r="M24">
-        <v>0.848130494512223</v>
+        <v>1.046717535679614</v>
       </c>
       <c r="N24">
-        <v>0.8461682268169776</v>
+        <v>1.009846372196519</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8677787876020356</v>
+        <v>1.001005067102653</v>
+      </c>
+      <c r="D25">
+        <v>1.041825932034552</v>
       </c>
       <c r="E25">
-        <v>0.8917438780402244</v>
+        <v>1.007577618174889</v>
       </c>
       <c r="F25">
-        <v>0.8881677644072337</v>
+        <v>1.040701548230638</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.054938243564614</v>
+      </c>
       <c r="J25">
-        <v>0.8977528231647955</v>
+        <v>1.025498654008591</v>
+      </c>
+      <c r="K25">
+        <v>1.053807885188663</v>
       </c>
       <c r="L25">
-        <v>0.9062925846414356</v>
+        <v>1.020059429333395</v>
       </c>
       <c r="M25">
-        <v>0.9027916433409402</v>
+        <v>1.052699252067042</v>
       </c>
       <c r="N25">
-        <v>0.8990277351473778</v>
+        <v>1.01193802487293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008184966181761</v>
+        <v>1.036957476541118</v>
       </c>
       <c r="D2">
-        <v>1.046576569802465</v>
+        <v>1.054211288482672</v>
       </c>
       <c r="E2">
-        <v>1.013369637065657</v>
+        <v>1.035798253899281</v>
       </c>
       <c r="F2">
-        <v>1.046427890968762</v>
+        <v>1.06083688210989</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057480186041034</v>
+        <v>1.046532868676721</v>
       </c>
       <c r="J2">
-        <v>1.030123592270234</v>
+        <v>1.042062963983529</v>
       </c>
       <c r="K2">
-        <v>1.05742302621962</v>
+        <v>1.056955124053742</v>
       </c>
       <c r="L2">
-        <v>1.024645801641043</v>
+        <v>1.038593826904688</v>
       </c>
       <c r="M2">
-        <v>1.057276195594888</v>
+        <v>1.063562576839835</v>
       </c>
       <c r="N2">
-        <v>1.01353266255407</v>
+        <v>1.017903570050256</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013233582913931</v>
+        <v>1.038009068662963</v>
       </c>
       <c r="D3">
-        <v>1.049927438209323</v>
+        <v>1.054914599969143</v>
       </c>
       <c r="E3">
-        <v>1.017455879470591</v>
+        <v>1.036695617954739</v>
       </c>
       <c r="F3">
-        <v>1.050469832905602</v>
+        <v>1.061715007593348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05924753187482</v>
+        <v>1.046831781892939</v>
       </c>
       <c r="J3">
-        <v>1.03336987489178</v>
+        <v>1.042758222345012</v>
       </c>
       <c r="K3">
-        <v>1.059958987019687</v>
+        <v>1.057471914828258</v>
       </c>
       <c r="L3">
-        <v>1.027870176612663</v>
+        <v>1.039300426791439</v>
       </c>
       <c r="M3">
-        <v>1.060495236188297</v>
+        <v>1.064255045226615</v>
       </c>
       <c r="N3">
-        <v>1.014650963245506</v>
+        <v>1.018139400982565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016428979132689</v>
+        <v>1.038689734997415</v>
       </c>
       <c r="D4">
-        <v>1.052052458384329</v>
+        <v>1.055369821495843</v>
       </c>
       <c r="E4">
-        <v>1.020048054362621</v>
+        <v>1.037276797264747</v>
       </c>
       <c r="F4">
-        <v>1.053034597651542</v>
+        <v>1.062283680012021</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060356486883885</v>
+        <v>1.047023997630755</v>
       </c>
       <c r="J4">
-        <v>1.035421566016553</v>
+        <v>1.043207745244501</v>
       </c>
       <c r="K4">
-        <v>1.061560764776212</v>
+        <v>1.057805769008389</v>
       </c>
       <c r="L4">
-        <v>1.029910391629152</v>
+        <v>1.039757537355634</v>
       </c>
       <c r="M4">
-        <v>1.062532456414468</v>
+        <v>1.064702944037626</v>
       </c>
       <c r="N4">
-        <v>1.015357233509064</v>
+        <v>1.018291751490072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017755895018566</v>
+        <v>1.038975938739923</v>
       </c>
       <c r="D5">
-        <v>1.052935801208679</v>
+        <v>1.055561227032463</v>
       </c>
       <c r="E5">
-        <v>1.021125838893158</v>
+        <v>1.037521249991565</v>
       </c>
       <c r="F5">
-        <v>1.054101116759537</v>
+        <v>1.062522860446928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060814623215316</v>
+        <v>1.04710451715803</v>
       </c>
       <c r="J5">
-        <v>1.036272796944354</v>
+        <v>1.043396639078057</v>
       </c>
       <c r="K5">
-        <v>1.062225056099099</v>
+        <v>1.057945990262676</v>
       </c>
       <c r="L5">
-        <v>1.03075742771334</v>
+        <v>1.039949680564929</v>
       </c>
       <c r="M5">
-        <v>1.063378309647752</v>
+        <v>1.064891198003588</v>
       </c>
       <c r="N5">
-        <v>1.015650129661712</v>
+        <v>1.018355740059601</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017977745269508</v>
+        <v>1.039023996632349</v>
       </c>
       <c r="D6">
-        <v>1.05308354032424</v>
+        <v>1.055593366612828</v>
       </c>
       <c r="E6">
-        <v>1.021306114860422</v>
+        <v>1.037562301987018</v>
       </c>
       <c r="F6">
-        <v>1.054279515144167</v>
+        <v>1.06256302634413</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060891079465099</v>
+        <v>1.047118019842058</v>
       </c>
       <c r="J6">
-        <v>1.036415070945419</v>
+        <v>1.043428350152308</v>
       </c>
       <c r="K6">
-        <v>1.062336067967512</v>
+        <v>1.057969526320391</v>
       </c>
       <c r="L6">
-        <v>1.030899033846221</v>
+        <v>1.039981940711841</v>
       </c>
       <c r="M6">
-        <v>1.063519720718126</v>
+        <v>1.064922804142788</v>
       </c>
       <c r="N6">
-        <v>1.01569907620858</v>
+        <v>1.018366480520937</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016446773149093</v>
+        <v>1.038693559063097</v>
       </c>
       <c r="D7">
-        <v>1.052064300583363</v>
+        <v>1.055372378948008</v>
       </c>
       <c r="E7">
-        <v>1.020062502199943</v>
+        <v>1.037280063163954</v>
       </c>
       <c r="F7">
-        <v>1.053048894000844</v>
+        <v>1.062286875519736</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060362639939389</v>
+        <v>1.047025074668668</v>
       </c>
       <c r="J7">
-        <v>1.035432984093419</v>
+        <v>1.043210269590004</v>
       </c>
       <c r="K7">
-        <v>1.061569676451864</v>
+        <v>1.057807643167574</v>
       </c>
       <c r="L7">
-        <v>1.029921751201143</v>
+        <v>1.039760104885672</v>
       </c>
       <c r="M7">
-        <v>1.062543799923934</v>
+        <v>1.064705459665233</v>
       </c>
       <c r="N7">
-        <v>1.015361162826665</v>
+        <v>1.018292606742895</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009906364426488</v>
+        <v>1.037312822270023</v>
       </c>
       <c r="D8">
-        <v>1.047718163877961</v>
+        <v>1.054448947855739</v>
       </c>
       <c r="E8">
-        <v>1.01476163137218</v>
+        <v>1.036101413216717</v>
       </c>
       <c r="F8">
-        <v>1.047804627149422</v>
+        <v>1.061133551452642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058084778946011</v>
+        <v>1.046634136239053</v>
       </c>
       <c r="J8">
-        <v>1.031231055399156</v>
+        <v>1.042298003206302</v>
       </c>
       <c r="K8">
-        <v>1.05828834651061</v>
+        <v>1.057129888071483</v>
       </c>
       <c r="L8">
-        <v>1.025745291676892</v>
+        <v>1.038832647459376</v>
       </c>
       <c r="M8">
-        <v>1.058373767482354</v>
+        <v>1.063796635366512</v>
       </c>
       <c r="N8">
-        <v>1.013914271078105</v>
+        <v>1.017983321396729</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.997802703876242</v>
+        <v>1.034881444219985</v>
       </c>
       <c r="D9">
-        <v>1.039712993092054</v>
+        <v>1.052822807163124</v>
       </c>
       <c r="E9">
-        <v>1.005001439632497</v>
+        <v>1.034028530420611</v>
       </c>
       <c r="F9">
-        <v>1.038155878944877</v>
+        <v>1.059104869878649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053794930138458</v>
+        <v>1.045936072348728</v>
       </c>
       <c r="J9">
-        <v>1.023433293651785</v>
+        <v>1.040687767216464</v>
       </c>
       <c r="K9">
-        <v>1.052193014771275</v>
+        <v>1.055931465993954</v>
       </c>
       <c r="L9">
-        <v>1.018013889816064</v>
+        <v>1.037197552826156</v>
       </c>
       <c r="M9">
-        <v>1.050658815631163</v>
+        <v>1.062193874019002</v>
       </c>
       <c r="N9">
-        <v>1.011225472488931</v>
+        <v>1.017436433273638</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9892967606676341</v>
+        <v>1.033261640449137</v>
       </c>
       <c r="D10">
-        <v>1.034119601920767</v>
+        <v>1.051739497357984</v>
       </c>
       <c r="E10">
-        <v>0.9981798728120956</v>
+        <v>1.032649369502656</v>
       </c>
       <c r="F10">
-        <v>1.031419681698303</v>
+        <v>1.057754917145619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05073345355298</v>
+        <v>1.045464548185762</v>
       </c>
       <c r="J10">
-        <v>1.017941566371261</v>
+        <v>1.039612480427784</v>
       </c>
       <c r="K10">
-        <v>1.047898981864105</v>
+        <v>1.05512978730187</v>
       </c>
       <c r="L10">
-        <v>1.012582068165428</v>
+        <v>1.036106982355728</v>
       </c>
       <c r="M10">
-        <v>1.045243907263889</v>
+        <v>1.061124547158391</v>
       </c>
       <c r="N10">
-        <v>1.009329831543156</v>
+        <v>1.017070585659103</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9854982459512261</v>
+        <v>1.032560511281927</v>
       </c>
       <c r="D11">
-        <v>1.031631023599279</v>
+        <v>1.051270612525423</v>
       </c>
       <c r="E11">
-        <v>0.9951433842120468</v>
+        <v>1.032052840031739</v>
       </c>
       <c r="F11">
-        <v>1.028423597869701</v>
+        <v>1.057170979535261</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049356068681461</v>
+        <v>1.045258919534829</v>
       </c>
       <c r="J11">
-        <v>1.015487011557925</v>
+        <v>1.039146447690004</v>
       </c>
       <c r="K11">
-        <v>1.045980100807711</v>
+        <v>1.054782013456333</v>
       </c>
       <c r="L11">
-        <v>1.010157474074433</v>
+        <v>1.03563463831095</v>
       </c>
       <c r="M11">
-        <v>1.042828681587231</v>
+        <v>1.060661333184482</v>
       </c>
       <c r="N11">
-        <v>1.008482209052983</v>
+        <v>1.016911874519065</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9840688799146555</v>
+        <v>1.032300119064093</v>
       </c>
       <c r="D12">
-        <v>1.030696120389201</v>
+        <v>1.0510964783059</v>
       </c>
       <c r="E12">
-        <v>0.9940023279672726</v>
+        <v>1.031831361572959</v>
       </c>
       <c r="F12">
-        <v>1.027298144030258</v>
+        <v>1.056954170412553</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048836308563037</v>
+        <v>1.045182321550001</v>
       </c>
       <c r="J12">
-        <v>1.014563118915158</v>
+        <v>1.038973278583005</v>
       </c>
       <c r="K12">
-        <v>1.045257948963014</v>
+        <v>1.05465273908423</v>
       </c>
       <c r="L12">
-        <v>1.009245343100244</v>
+        <v>1.035459171061701</v>
       </c>
       <c r="M12">
-        <v>1.04192039832535</v>
+        <v>1.060489247396149</v>
       </c>
       <c r="N12">
-        <v>1.008163121401081</v>
+        <v>1.016852877750821</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9843763362383984</v>
+        <v>1.032355972345011</v>
       </c>
       <c r="D13">
-        <v>1.030897145913968</v>
+        <v>1.05113382928969</v>
       </c>
       <c r="E13">
-        <v>0.994247696912843</v>
+        <v>1.031878864958828</v>
       </c>
       <c r="F13">
-        <v>1.027540137981491</v>
+        <v>1.057000672556935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048948173288109</v>
+        <v>1.04519876195308</v>
       </c>
       <c r="J13">
-        <v>1.014761858421897</v>
+        <v>1.03901042682689</v>
       </c>
       <c r="K13">
-        <v>1.045413285669767</v>
+        <v>1.054680473194038</v>
       </c>
       <c r="L13">
-        <v>1.009441530557424</v>
+        <v>1.035496810174692</v>
       </c>
       <c r="M13">
-        <v>1.042115742745332</v>
+        <v>1.060526161613075</v>
       </c>
       <c r="N13">
-        <v>1.008231762457273</v>
+        <v>1.01686553476326</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9853804766803276</v>
+        <v>1.032538986398156</v>
       </c>
       <c r="D14">
-        <v>1.031553962298455</v>
+        <v>1.051256217908184</v>
       </c>
       <c r="E14">
-        <v>0.995049337298209</v>
+        <v>1.032034530527522</v>
       </c>
       <c r="F14">
-        <v>1.028330828055519</v>
+        <v>1.057153056156941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049313273365042</v>
+        <v>1.045252592373799</v>
       </c>
       <c r="J14">
-        <v>1.015410894358739</v>
+        <v>1.039132134777475</v>
       </c>
       <c r="K14">
-        <v>1.045920601863194</v>
+        <v>1.054771329544089</v>
       </c>
       <c r="L14">
-        <v>1.010082316011373</v>
+        <v>1.035620134491129</v>
       </c>
       <c r="M14">
-        <v>1.042753833699713</v>
+        <v>1.060647109075723</v>
       </c>
       <c r="N14">
-        <v>1.008455921037092</v>
+        <v>1.016906998732106</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9859966845924504</v>
+        <v>1.032651752476219</v>
       </c>
       <c r="D15">
-        <v>1.031957236185566</v>
+        <v>1.051331629648258</v>
       </c>
       <c r="E15">
-        <v>0.9955414861366277</v>
+        <v>1.03213045437627</v>
       </c>
       <c r="F15">
-        <v>1.028816311248619</v>
+        <v>1.05724695685209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049537133843981</v>
+        <v>1.045285730149437</v>
       </c>
       <c r="J15">
-        <v>1.015809154866943</v>
+        <v>1.039207114617035</v>
       </c>
       <c r="K15">
-        <v>1.046231917308851</v>
+        <v>1.054827296482952</v>
       </c>
       <c r="L15">
-        <v>1.01047557789794</v>
+        <v>1.035696116346152</v>
       </c>
       <c r="M15">
-        <v>1.043145486083188</v>
+        <v>1.060721625180228</v>
       </c>
       <c r="N15">
-        <v>1.008593463532064</v>
+        <v>1.01693254017623</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9895463332166151</v>
+        <v>1.033308177473395</v>
       </c>
       <c r="D16">
-        <v>1.034283313219581</v>
+        <v>1.051770619913776</v>
       </c>
       <c r="E16">
-        <v>0.9983795898731758</v>
+        <v>1.032688973073119</v>
       </c>
       <c r="F16">
-        <v>1.031616796130117</v>
+        <v>1.057793683909079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050823745404088</v>
+        <v>1.045478164443396</v>
       </c>
       <c r="J16">
-        <v>1.018102798592767</v>
+        <v>1.039643400523947</v>
       </c>
       <c r="K16">
-        <v>1.048025039724823</v>
+        <v>1.055152854448969</v>
       </c>
       <c r="L16">
-        <v>1.012741399113056</v>
+        <v>1.036138327780611</v>
       </c>
       <c r="M16">
-        <v>1.045402664578863</v>
+        <v>1.061155285244271</v>
       </c>
       <c r="N16">
-        <v>1.00938550273379</v>
+        <v>1.017081112559916</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9917412974443497</v>
+        <v>1.033720004096101</v>
       </c>
       <c r="D17">
-        <v>1.035724207523849</v>
+        <v>1.052046040030569</v>
       </c>
       <c r="E17">
-        <v>1.000137207497898</v>
+        <v>1.033039493192207</v>
       </c>
       <c r="F17">
-        <v>1.033351789536079</v>
+        <v>1.058136792940099</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051616700848801</v>
+        <v>1.045598483929343</v>
       </c>
       <c r="J17">
-        <v>1.019520587089673</v>
+        <v>1.039916957163139</v>
       </c>
       <c r="K17">
-        <v>1.049133571639518</v>
+        <v>1.055356897075077</v>
       </c>
       <c r="L17">
-        <v>1.014142831397394</v>
+        <v>1.036415683503936</v>
       </c>
       <c r="M17">
-        <v>1.046799263868532</v>
+        <v>1.061427258880332</v>
       </c>
       <c r="N17">
-        <v>1.009875005668907</v>
+        <v>1.017174228789806</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9930105282867505</v>
+        <v>1.033960240362675</v>
       </c>
       <c r="D18">
-        <v>1.036558268219444</v>
+        <v>1.052206706709346</v>
       </c>
       <c r="E18">
-        <v>1.001154469434918</v>
+        <v>1.033244008934985</v>
       </c>
       <c r="F18">
-        <v>1.034356181335532</v>
+        <v>1.058336980534973</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052074251681992</v>
+        <v>1.045668523785215</v>
       </c>
       <c r="J18">
-        <v>1.020340215028361</v>
+        <v>1.040076476956734</v>
       </c>
       <c r="K18">
-        <v>1.049774447219394</v>
+        <v>1.055475849725275</v>
       </c>
       <c r="L18">
-        <v>1.014953304943814</v>
+        <v>1.036577448818128</v>
       </c>
       <c r="M18">
-        <v>1.047607111292761</v>
+        <v>1.061585878270007</v>
       </c>
       <c r="N18">
-        <v>1.010157954404838</v>
+        <v>1.01722851327027</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9934414599231141</v>
+        <v>1.034042158927193</v>
       </c>
       <c r="D19">
-        <v>1.036841593158929</v>
+        <v>1.052261493046897</v>
       </c>
       <c r="E19">
-        <v>1.001500006622152</v>
+        <v>1.033313754236237</v>
       </c>
       <c r="F19">
-        <v>1.034697383236749</v>
+        <v>1.058405249121115</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05222943286025</v>
+        <v>1.045692381730643</v>
       </c>
       <c r="J19">
-        <v>1.020618460300283</v>
+        <v>1.040130862093262</v>
       </c>
       <c r="K19">
-        <v>1.049992013419454</v>
+        <v>1.055516398973193</v>
       </c>
       <c r="L19">
-        <v>1.015228493428952</v>
+        <v>1.03663260463351</v>
       </c>
       <c r="M19">
-        <v>1.047881435312915</v>
+        <v>1.061639960265903</v>
       </c>
       <c r="N19">
-        <v>1.010254003000256</v>
+        <v>1.017247018011388</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9915069496119303</v>
+        <v>1.033675816436528</v>
       </c>
       <c r="D20">
-        <v>1.03557027769525</v>
+        <v>1.052016488107514</v>
       </c>
       <c r="E20">
-        <v>0.9999494568478494</v>
+        <v>1.033001879150578</v>
       </c>
       <c r="F20">
-        <v>1.033166431976291</v>
+        <v>1.058099974591601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051532140500816</v>
+        <v>1.045585589313651</v>
       </c>
       <c r="J20">
-        <v>1.019369235996048</v>
+        <v>1.039887611380599</v>
       </c>
       <c r="K20">
-        <v>1.049015230649675</v>
+        <v>1.055335011636034</v>
       </c>
       <c r="L20">
-        <v>1.013993195054293</v>
+        <v>1.036385927055469</v>
       </c>
       <c r="M20">
-        <v>1.046650125691074</v>
+        <v>1.061398080562921</v>
       </c>
       <c r="N20">
-        <v>1.009822753982039</v>
+        <v>1.017164241260642</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9850853002902783</v>
+        <v>1.032485092263095</v>
       </c>
       <c r="D21">
-        <v>1.031360841482327</v>
+        <v>1.051220176660008</v>
       </c>
       <c r="E21">
-        <v>0.9948136439809525</v>
+        <v>1.031988688156081</v>
       </c>
       <c r="F21">
-        <v>1.028098342263962</v>
+        <v>1.057108180455994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049205988205697</v>
+        <v>1.045236746681363</v>
       </c>
       <c r="J21">
-        <v>1.015220110680099</v>
+        <v>1.039096296578457</v>
       </c>
       <c r="K21">
-        <v>1.045771472987377</v>
+        <v>1.054744577248993</v>
       </c>
       <c r="L21">
-        <v>1.009893944178352</v>
+        <v>1.035583819037736</v>
       </c>
       <c r="M21">
-        <v>1.042566244655912</v>
+        <v>1.060611493814979</v>
       </c>
       <c r="N21">
-        <v>1.008390030875532</v>
+        <v>1.016894789850415</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9809405249016377</v>
+        <v>1.031736658646209</v>
       </c>
       <c r="D22">
-        <v>1.028652962349771</v>
+        <v>1.050719680972363</v>
       </c>
       <c r="E22">
-        <v>0.9915079503821177</v>
+        <v>1.031352228669525</v>
       </c>
       <c r="F22">
-        <v>1.024838711645677</v>
+        <v>1.056485128897511</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047696158523059</v>
+        <v>1.045016152344466</v>
       </c>
       <c r="J22">
-        <v>1.012540665011147</v>
+        <v>1.038598396575564</v>
       </c>
       <c r="K22">
-        <v>1.043677395290561</v>
+        <v>1.054372794491405</v>
       </c>
       <c r="L22">
-        <v>1.007249534645083</v>
+        <v>1.035079400013419</v>
       </c>
       <c r="M22">
-        <v>1.03993366192391</v>
+        <v>1.06011677683637</v>
       </c>
       <c r="N22">
-        <v>1.00746455257003</v>
+        <v>1.016725118356522</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.983148301581133</v>
+        <v>1.032133396487105</v>
       </c>
       <c r="D23">
-        <v>1.030094451829582</v>
+        <v>1.050984986062921</v>
       </c>
       <c r="E23">
-        <v>0.9932678860015743</v>
+        <v>1.031689573304054</v>
       </c>
       <c r="F23">
-        <v>1.026573870229757</v>
+        <v>1.056815369848983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048501158904892</v>
+        <v>1.04513321319378</v>
       </c>
       <c r="J23">
-        <v>1.013968025755973</v>
+        <v>1.038862377671096</v>
       </c>
       <c r="K23">
-        <v>1.044792839871391</v>
+        <v>1.054569935763231</v>
       </c>
       <c r="L23">
-        <v>1.008657963124662</v>
+        <v>1.03534681161721</v>
       </c>
       <c r="M23">
-        <v>1.041335593796343</v>
+        <v>1.060379050437226</v>
       </c>
       <c r="N23">
-        <v>1.007957581401613</v>
+        <v>1.016815088693265</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9916128753918849</v>
+        <v>1.033695782861168</v>
       </c>
       <c r="D24">
-        <v>1.035639851663242</v>
+        <v>1.052029841291548</v>
       </c>
       <c r="E24">
-        <v>1.000034317726504</v>
+        <v>1.033018875121346</v>
       </c>
       <c r="F24">
-        <v>1.03325021051831</v>
+        <v>1.058116611039619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051570365003986</v>
+        <v>1.045591416269445</v>
       </c>
       <c r="J24">
-        <v>1.01943764768802</v>
+        <v>1.039900871603692</v>
       </c>
       <c r="K24">
-        <v>1.049068721469093</v>
+        <v>1.055344900915381</v>
       </c>
       <c r="L24">
-        <v>1.014060830733911</v>
+        <v>1.036399372749442</v>
       </c>
       <c r="M24">
-        <v>1.046717535679614</v>
+        <v>1.061411265044961</v>
       </c>
       <c r="N24">
-        <v>1.009846372196519</v>
+        <v>1.017168754283654</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001005067102653</v>
+        <v>1.035509817307851</v>
       </c>
       <c r="D25">
-        <v>1.041825932034552</v>
+        <v>1.053243070395033</v>
       </c>
       <c r="E25">
-        <v>1.007577618174889</v>
+        <v>1.034563936503253</v>
       </c>
       <c r="F25">
-        <v>1.040701548230638</v>
+        <v>1.059628896578428</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054938243564614</v>
+        <v>1.046117624038343</v>
       </c>
       <c r="J25">
-        <v>1.025498654008591</v>
+        <v>1.041104370104771</v>
       </c>
       <c r="K25">
-        <v>1.053807885188663</v>
+        <v>1.056241771544499</v>
       </c>
       <c r="L25">
-        <v>1.020059429333395</v>
+        <v>1.037620355456714</v>
       </c>
       <c r="M25">
-        <v>1.052699252067042</v>
+        <v>1.062608374499816</v>
       </c>
       <c r="N25">
-        <v>1.01193802487293</v>
+        <v>1.017578039264079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036957476541118</v>
+        <v>1.008184966181762</v>
       </c>
       <c r="D2">
-        <v>1.054211288482672</v>
+        <v>1.046576569802465</v>
       </c>
       <c r="E2">
-        <v>1.035798253899281</v>
+        <v>1.013369637065657</v>
       </c>
       <c r="F2">
-        <v>1.06083688210989</v>
+        <v>1.046427890968762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046532868676721</v>
+        <v>1.057480186041034</v>
       </c>
       <c r="J2">
-        <v>1.042062963983529</v>
+        <v>1.030123592270234</v>
       </c>
       <c r="K2">
-        <v>1.056955124053742</v>
+        <v>1.057423026219621</v>
       </c>
       <c r="L2">
-        <v>1.038593826904688</v>
+        <v>1.024645801641044</v>
       </c>
       <c r="M2">
-        <v>1.063562576839835</v>
+        <v>1.057276195594888</v>
       </c>
       <c r="N2">
-        <v>1.017903570050256</v>
+        <v>1.01353266255407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038009068662963</v>
+        <v>1.01323358291393</v>
       </c>
       <c r="D3">
-        <v>1.054914599969143</v>
+        <v>1.049927438209322</v>
       </c>
       <c r="E3">
-        <v>1.036695617954739</v>
+        <v>1.017455879470591</v>
       </c>
       <c r="F3">
-        <v>1.061715007593348</v>
+        <v>1.050469832905601</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046831781892939</v>
+        <v>1.05924753187482</v>
       </c>
       <c r="J3">
-        <v>1.042758222345012</v>
+        <v>1.03336987489178</v>
       </c>
       <c r="K3">
-        <v>1.057471914828258</v>
+        <v>1.059958987019687</v>
       </c>
       <c r="L3">
-        <v>1.039300426791439</v>
+        <v>1.027870176612663</v>
       </c>
       <c r="M3">
-        <v>1.064255045226615</v>
+        <v>1.060495236188297</v>
       </c>
       <c r="N3">
-        <v>1.018139400982565</v>
+        <v>1.014650963245506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038689734997415</v>
+        <v>1.016428979132688</v>
       </c>
       <c r="D4">
-        <v>1.055369821495843</v>
+        <v>1.052052458384328</v>
       </c>
       <c r="E4">
-        <v>1.037276797264747</v>
+        <v>1.02004805436262</v>
       </c>
       <c r="F4">
-        <v>1.062283680012021</v>
+        <v>1.053034597651542</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047023997630755</v>
+        <v>1.060356486883884</v>
       </c>
       <c r="J4">
-        <v>1.043207745244501</v>
+        <v>1.035421566016552</v>
       </c>
       <c r="K4">
-        <v>1.057805769008389</v>
+        <v>1.061560764776211</v>
       </c>
       <c r="L4">
-        <v>1.039757537355634</v>
+        <v>1.029910391629151</v>
       </c>
       <c r="M4">
-        <v>1.064702944037626</v>
+        <v>1.062532456414467</v>
       </c>
       <c r="N4">
-        <v>1.018291751490072</v>
+        <v>1.015357233509064</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038975938739923</v>
+        <v>1.017755895018565</v>
       </c>
       <c r="D5">
-        <v>1.055561227032463</v>
+        <v>1.052935801208678</v>
       </c>
       <c r="E5">
-        <v>1.037521249991565</v>
+        <v>1.021125838893157</v>
       </c>
       <c r="F5">
-        <v>1.062522860446928</v>
+        <v>1.054101116759536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04710451715803</v>
+        <v>1.060814623215316</v>
       </c>
       <c r="J5">
-        <v>1.043396639078057</v>
+        <v>1.036272796944354</v>
       </c>
       <c r="K5">
-        <v>1.057945990262676</v>
+        <v>1.062225056099098</v>
       </c>
       <c r="L5">
-        <v>1.039949680564929</v>
+        <v>1.03075742771334</v>
       </c>
       <c r="M5">
-        <v>1.064891198003588</v>
+        <v>1.063378309647752</v>
       </c>
       <c r="N5">
-        <v>1.018355740059601</v>
+        <v>1.015650129661712</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039023996632349</v>
+        <v>1.017977745269508</v>
       </c>
       <c r="D6">
-        <v>1.055593366612828</v>
+        <v>1.05308354032424</v>
       </c>
       <c r="E6">
-        <v>1.037562301987018</v>
+        <v>1.021306114860422</v>
       </c>
       <c r="F6">
-        <v>1.06256302634413</v>
+        <v>1.054279515144168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047118019842058</v>
+        <v>1.060891079465099</v>
       </c>
       <c r="J6">
-        <v>1.043428350152308</v>
+        <v>1.03641507094542</v>
       </c>
       <c r="K6">
-        <v>1.057969526320391</v>
+        <v>1.062336067967512</v>
       </c>
       <c r="L6">
-        <v>1.039981940711841</v>
+        <v>1.030899033846221</v>
       </c>
       <c r="M6">
-        <v>1.064922804142788</v>
+        <v>1.063519720718126</v>
       </c>
       <c r="N6">
-        <v>1.018366480520937</v>
+        <v>1.01569907620858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038693559063097</v>
+        <v>1.016446773149093</v>
       </c>
       <c r="D7">
-        <v>1.055372378948008</v>
+        <v>1.052064300583364</v>
       </c>
       <c r="E7">
-        <v>1.037280063163954</v>
+        <v>1.020062502199944</v>
       </c>
       <c r="F7">
-        <v>1.062286875519736</v>
+        <v>1.053048894000844</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047025074668668</v>
+        <v>1.060362639939389</v>
       </c>
       <c r="J7">
-        <v>1.043210269590004</v>
+        <v>1.035432984093419</v>
       </c>
       <c r="K7">
-        <v>1.057807643167574</v>
+        <v>1.061569676451864</v>
       </c>
       <c r="L7">
-        <v>1.039760104885672</v>
+        <v>1.029921751201144</v>
       </c>
       <c r="M7">
-        <v>1.064705459665233</v>
+        <v>1.062543799923934</v>
       </c>
       <c r="N7">
-        <v>1.018292606742895</v>
+        <v>1.015361162826665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037312822270023</v>
+        <v>1.009906364426488</v>
       </c>
       <c r="D8">
-        <v>1.054448947855739</v>
+        <v>1.047718163877961</v>
       </c>
       <c r="E8">
-        <v>1.036101413216717</v>
+        <v>1.014761631372179</v>
       </c>
       <c r="F8">
-        <v>1.061133551452642</v>
+        <v>1.047804627149422</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046634136239053</v>
+        <v>1.058084778946011</v>
       </c>
       <c r="J8">
-        <v>1.042298003206302</v>
+        <v>1.031231055399156</v>
       </c>
       <c r="K8">
-        <v>1.057129888071483</v>
+        <v>1.05828834651061</v>
       </c>
       <c r="L8">
-        <v>1.038832647459376</v>
+        <v>1.025745291676891</v>
       </c>
       <c r="M8">
-        <v>1.063796635366512</v>
+        <v>1.058373767482354</v>
       </c>
       <c r="N8">
-        <v>1.017983321396729</v>
+        <v>1.013914271078105</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034881444219985</v>
+        <v>0.9978027038762424</v>
       </c>
       <c r="D9">
-        <v>1.052822807163124</v>
+        <v>1.039712993092054</v>
       </c>
       <c r="E9">
-        <v>1.034028530420611</v>
+        <v>1.005001439632497</v>
       </c>
       <c r="F9">
-        <v>1.059104869878649</v>
+        <v>1.038155878944877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045936072348728</v>
+        <v>1.053794930138458</v>
       </c>
       <c r="J9">
-        <v>1.040687767216464</v>
+        <v>1.023433293651785</v>
       </c>
       <c r="K9">
-        <v>1.055931465993954</v>
+        <v>1.052193014771275</v>
       </c>
       <c r="L9">
-        <v>1.037197552826156</v>
+        <v>1.018013889816064</v>
       </c>
       <c r="M9">
-        <v>1.062193874019002</v>
+        <v>1.050658815631163</v>
       </c>
       <c r="N9">
-        <v>1.017436433273638</v>
+        <v>1.011225472488931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033261640449137</v>
+        <v>0.9892967606676346</v>
       </c>
       <c r="D10">
-        <v>1.051739497357984</v>
+        <v>1.034119601920768</v>
       </c>
       <c r="E10">
-        <v>1.032649369502656</v>
+        <v>0.9981798728120961</v>
       </c>
       <c r="F10">
-        <v>1.057754917145619</v>
+        <v>1.031419681698304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045464548185762</v>
+        <v>1.05073345355298</v>
       </c>
       <c r="J10">
-        <v>1.039612480427784</v>
+        <v>1.017941566371261</v>
       </c>
       <c r="K10">
-        <v>1.05512978730187</v>
+        <v>1.047898981864106</v>
       </c>
       <c r="L10">
-        <v>1.036106982355728</v>
+        <v>1.012582068165428</v>
       </c>
       <c r="M10">
-        <v>1.061124547158391</v>
+        <v>1.045243907263889</v>
       </c>
       <c r="N10">
-        <v>1.017070585659103</v>
+        <v>1.009329831543156</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032560511281927</v>
+        <v>0.9854982459512263</v>
       </c>
       <c r="D11">
-        <v>1.051270612525423</v>
+        <v>1.031631023599278</v>
       </c>
       <c r="E11">
-        <v>1.032052840031739</v>
+        <v>0.9951433842120467</v>
       </c>
       <c r="F11">
-        <v>1.057170979535261</v>
+        <v>1.028423597869701</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045258919534829</v>
+        <v>1.049356068681461</v>
       </c>
       <c r="J11">
-        <v>1.039146447690004</v>
+        <v>1.015487011557925</v>
       </c>
       <c r="K11">
-        <v>1.054782013456333</v>
+        <v>1.045980100807711</v>
       </c>
       <c r="L11">
-        <v>1.03563463831095</v>
+        <v>1.010157474074433</v>
       </c>
       <c r="M11">
-        <v>1.060661333184482</v>
+        <v>1.042828681587231</v>
       </c>
       <c r="N11">
-        <v>1.016911874519065</v>
+        <v>1.008482209052984</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032300119064093</v>
+        <v>0.9840688799146555</v>
       </c>
       <c r="D12">
-        <v>1.0510964783059</v>
+        <v>1.030696120389201</v>
       </c>
       <c r="E12">
-        <v>1.031831361572959</v>
+        <v>0.9940023279672727</v>
       </c>
       <c r="F12">
-        <v>1.056954170412553</v>
+        <v>1.027298144030258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045182321550001</v>
+        <v>1.048836308563037</v>
       </c>
       <c r="J12">
-        <v>1.038973278583005</v>
+        <v>1.014563118915158</v>
       </c>
       <c r="K12">
-        <v>1.05465273908423</v>
+        <v>1.045257948963014</v>
       </c>
       <c r="L12">
-        <v>1.035459171061701</v>
+        <v>1.009245343100244</v>
       </c>
       <c r="M12">
-        <v>1.060489247396149</v>
+        <v>1.04192039832535</v>
       </c>
       <c r="N12">
-        <v>1.016852877750821</v>
+        <v>1.008163121401081</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032355972345011</v>
+        <v>0.9843763362383985</v>
       </c>
       <c r="D13">
-        <v>1.05113382928969</v>
+        <v>1.030897145913968</v>
       </c>
       <c r="E13">
-        <v>1.031878864958828</v>
+        <v>0.9942476969128428</v>
       </c>
       <c r="F13">
-        <v>1.057000672556935</v>
+        <v>1.027540137981492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04519876195308</v>
+        <v>1.048948173288109</v>
       </c>
       <c r="J13">
-        <v>1.03901042682689</v>
+        <v>1.014761858421897</v>
       </c>
       <c r="K13">
-        <v>1.054680473194038</v>
+        <v>1.045413285669767</v>
       </c>
       <c r="L13">
-        <v>1.035496810174692</v>
+        <v>1.009441530557424</v>
       </c>
       <c r="M13">
-        <v>1.060526161613075</v>
+        <v>1.042115742745332</v>
       </c>
       <c r="N13">
-        <v>1.01686553476326</v>
+        <v>1.008231762457273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032538986398156</v>
+        <v>0.9853804766803272</v>
       </c>
       <c r="D14">
-        <v>1.051256217908184</v>
+        <v>1.031553962298455</v>
       </c>
       <c r="E14">
-        <v>1.032034530527522</v>
+        <v>0.9950493372982087</v>
       </c>
       <c r="F14">
-        <v>1.057153056156941</v>
+        <v>1.028330828055519</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045252592373799</v>
+        <v>1.049313273365042</v>
       </c>
       <c r="J14">
-        <v>1.039132134777475</v>
+        <v>1.015410894358738</v>
       </c>
       <c r="K14">
-        <v>1.054771329544089</v>
+        <v>1.045920601863194</v>
       </c>
       <c r="L14">
-        <v>1.035620134491129</v>
+        <v>1.010082316011373</v>
       </c>
       <c r="M14">
-        <v>1.060647109075723</v>
+        <v>1.042753833699714</v>
       </c>
       <c r="N14">
-        <v>1.016906998732106</v>
+        <v>1.008455921037092</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032651752476219</v>
+        <v>0.9859966845924506</v>
       </c>
       <c r="D15">
-        <v>1.051331629648258</v>
+        <v>1.031957236185566</v>
       </c>
       <c r="E15">
-        <v>1.03213045437627</v>
+        <v>0.9955414861366277</v>
       </c>
       <c r="F15">
-        <v>1.05724695685209</v>
+        <v>1.028816311248619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045285730149437</v>
+        <v>1.049537133843981</v>
       </c>
       <c r="J15">
-        <v>1.039207114617035</v>
+        <v>1.015809154866943</v>
       </c>
       <c r="K15">
-        <v>1.054827296482952</v>
+        <v>1.046231917308851</v>
       </c>
       <c r="L15">
-        <v>1.035696116346152</v>
+        <v>1.01047557789794</v>
       </c>
       <c r="M15">
-        <v>1.060721625180228</v>
+        <v>1.043145486083188</v>
       </c>
       <c r="N15">
-        <v>1.01693254017623</v>
+        <v>1.008593463532064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033308177473395</v>
+        <v>0.9895463332166149</v>
       </c>
       <c r="D16">
-        <v>1.051770619913776</v>
+        <v>1.03428331321958</v>
       </c>
       <c r="E16">
-        <v>1.032688973073119</v>
+        <v>0.9983795898731757</v>
       </c>
       <c r="F16">
-        <v>1.057793683909079</v>
+        <v>1.031616796130116</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045478164443396</v>
+        <v>1.050823745404088</v>
       </c>
       <c r="J16">
-        <v>1.039643400523947</v>
+        <v>1.018102798592767</v>
       </c>
       <c r="K16">
-        <v>1.055152854448969</v>
+        <v>1.048025039724822</v>
       </c>
       <c r="L16">
-        <v>1.036138327780611</v>
+        <v>1.012741399113056</v>
       </c>
       <c r="M16">
-        <v>1.061155285244271</v>
+        <v>1.045402664578862</v>
       </c>
       <c r="N16">
-        <v>1.017081112559916</v>
+        <v>1.00938550273379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033720004096101</v>
+        <v>0.9917412974443487</v>
       </c>
       <c r="D17">
-        <v>1.052046040030569</v>
+        <v>1.035724207523849</v>
       </c>
       <c r="E17">
-        <v>1.033039493192207</v>
+        <v>1.000137207497897</v>
       </c>
       <c r="F17">
-        <v>1.058136792940099</v>
+        <v>1.033351789536078</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045598483929343</v>
+        <v>1.0516167008488</v>
       </c>
       <c r="J17">
-        <v>1.039916957163139</v>
+        <v>1.019520587089672</v>
       </c>
       <c r="K17">
-        <v>1.055356897075077</v>
+        <v>1.049133571639517</v>
       </c>
       <c r="L17">
-        <v>1.036415683503936</v>
+        <v>1.014142831397394</v>
       </c>
       <c r="M17">
-        <v>1.061427258880332</v>
+        <v>1.046799263868531</v>
       </c>
       <c r="N17">
-        <v>1.017174228789806</v>
+        <v>1.009875005668907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033960240362675</v>
+        <v>0.9930105282867511</v>
       </c>
       <c r="D18">
-        <v>1.052206706709346</v>
+        <v>1.036558268219445</v>
       </c>
       <c r="E18">
-        <v>1.033244008934985</v>
+        <v>1.001154469434919</v>
       </c>
       <c r="F18">
-        <v>1.058336980534973</v>
+        <v>1.034356181335532</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045668523785215</v>
+        <v>1.052074251681993</v>
       </c>
       <c r="J18">
-        <v>1.040076476956734</v>
+        <v>1.020340215028362</v>
       </c>
       <c r="K18">
-        <v>1.055475849725275</v>
+        <v>1.049774447219395</v>
       </c>
       <c r="L18">
-        <v>1.036577448818128</v>
+        <v>1.014953304943815</v>
       </c>
       <c r="M18">
-        <v>1.061585878270007</v>
+        <v>1.047607111292762</v>
       </c>
       <c r="N18">
-        <v>1.01722851327027</v>
+        <v>1.010157954404838</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034042158927193</v>
+        <v>0.9934414599231143</v>
       </c>
       <c r="D19">
-        <v>1.052261493046897</v>
+        <v>1.036841593158929</v>
       </c>
       <c r="E19">
-        <v>1.033313754236237</v>
+        <v>1.001500006622153</v>
       </c>
       <c r="F19">
-        <v>1.058405249121115</v>
+        <v>1.034697383236749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045692381730643</v>
+        <v>1.05222943286025</v>
       </c>
       <c r="J19">
-        <v>1.040130862093262</v>
+        <v>1.020618460300283</v>
       </c>
       <c r="K19">
-        <v>1.055516398973193</v>
+        <v>1.049992013419454</v>
       </c>
       <c r="L19">
-        <v>1.03663260463351</v>
+        <v>1.015228493428952</v>
       </c>
       <c r="M19">
-        <v>1.061639960265903</v>
+        <v>1.047881435312915</v>
       </c>
       <c r="N19">
-        <v>1.017247018011388</v>
+        <v>1.010254003000256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033675816436528</v>
+        <v>0.9915069496119302</v>
       </c>
       <c r="D20">
-        <v>1.052016488107514</v>
+        <v>1.03557027769525</v>
       </c>
       <c r="E20">
-        <v>1.033001879150578</v>
+        <v>0.9999494568478492</v>
       </c>
       <c r="F20">
-        <v>1.058099974591601</v>
+        <v>1.033166431976291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045585589313651</v>
+        <v>1.051532140500815</v>
       </c>
       <c r="J20">
-        <v>1.039887611380599</v>
+        <v>1.019369235996048</v>
       </c>
       <c r="K20">
-        <v>1.055335011636034</v>
+        <v>1.049015230649675</v>
       </c>
       <c r="L20">
-        <v>1.036385927055469</v>
+        <v>1.013993195054293</v>
       </c>
       <c r="M20">
-        <v>1.061398080562921</v>
+        <v>1.046650125691074</v>
       </c>
       <c r="N20">
-        <v>1.017164241260642</v>
+        <v>1.009822753982039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032485092263095</v>
+        <v>0.9850853002902786</v>
       </c>
       <c r="D21">
-        <v>1.051220176660008</v>
+        <v>1.031360841482328</v>
       </c>
       <c r="E21">
-        <v>1.031988688156081</v>
+        <v>0.994813643980953</v>
       </c>
       <c r="F21">
-        <v>1.057108180455994</v>
+        <v>1.028098342263963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045236746681363</v>
+        <v>1.049205988205697</v>
       </c>
       <c r="J21">
-        <v>1.039096296578457</v>
+        <v>1.015220110680099</v>
       </c>
       <c r="K21">
-        <v>1.054744577248993</v>
+        <v>1.045771472987377</v>
       </c>
       <c r="L21">
-        <v>1.035583819037736</v>
+        <v>1.009893944178353</v>
       </c>
       <c r="M21">
-        <v>1.060611493814979</v>
+        <v>1.042566244655913</v>
       </c>
       <c r="N21">
-        <v>1.016894789850415</v>
+        <v>1.008390030875532</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031736658646209</v>
+        <v>0.9809405249016376</v>
       </c>
       <c r="D22">
-        <v>1.050719680972363</v>
+        <v>1.028652962349771</v>
       </c>
       <c r="E22">
-        <v>1.031352228669525</v>
+        <v>0.9915079503821177</v>
       </c>
       <c r="F22">
-        <v>1.056485128897511</v>
+        <v>1.024838711645677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045016152344466</v>
+        <v>1.047696158523059</v>
       </c>
       <c r="J22">
-        <v>1.038598396575564</v>
+        <v>1.012540665011147</v>
       </c>
       <c r="K22">
-        <v>1.054372794491405</v>
+        <v>1.04367739529056</v>
       </c>
       <c r="L22">
-        <v>1.035079400013419</v>
+        <v>1.007249534645083</v>
       </c>
       <c r="M22">
-        <v>1.06011677683637</v>
+        <v>1.03993366192391</v>
       </c>
       <c r="N22">
-        <v>1.016725118356522</v>
+        <v>1.00746455257003</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032133396487105</v>
+        <v>0.983148301581133</v>
       </c>
       <c r="D23">
-        <v>1.050984986062921</v>
+        <v>1.030094451829582</v>
       </c>
       <c r="E23">
-        <v>1.031689573304054</v>
+        <v>0.9932678860015741</v>
       </c>
       <c r="F23">
-        <v>1.056815369848983</v>
+        <v>1.026573870229757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04513321319378</v>
+        <v>1.048501158904892</v>
       </c>
       <c r="J23">
-        <v>1.038862377671096</v>
+        <v>1.013968025755973</v>
       </c>
       <c r="K23">
-        <v>1.054569935763231</v>
+        <v>1.044792839871391</v>
       </c>
       <c r="L23">
-        <v>1.03534681161721</v>
+        <v>1.008657963124661</v>
       </c>
       <c r="M23">
-        <v>1.060379050437226</v>
+        <v>1.041335593796342</v>
       </c>
       <c r="N23">
-        <v>1.016815088693265</v>
+        <v>1.007957581401613</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033695782861168</v>
+        <v>0.9916128753918844</v>
       </c>
       <c r="D24">
-        <v>1.052029841291548</v>
+        <v>1.035639851663241</v>
       </c>
       <c r="E24">
-        <v>1.033018875121346</v>
+        <v>1.000034317726503</v>
       </c>
       <c r="F24">
-        <v>1.058116611039619</v>
+        <v>1.03325021051831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045591416269445</v>
+        <v>1.051570365003986</v>
       </c>
       <c r="J24">
-        <v>1.039900871603692</v>
+        <v>1.019437647688019</v>
       </c>
       <c r="K24">
-        <v>1.055344900915381</v>
+        <v>1.049068721469093</v>
       </c>
       <c r="L24">
-        <v>1.036399372749442</v>
+        <v>1.01406083073391</v>
       </c>
       <c r="M24">
-        <v>1.061411265044961</v>
+        <v>1.046717535679613</v>
       </c>
       <c r="N24">
-        <v>1.017168754283654</v>
+        <v>1.009846372196519</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035509817307851</v>
+        <v>1.001005067102654</v>
       </c>
       <c r="D25">
-        <v>1.053243070395033</v>
+        <v>1.041825932034552</v>
       </c>
       <c r="E25">
-        <v>1.034563936503253</v>
+        <v>1.007577618174889</v>
       </c>
       <c r="F25">
-        <v>1.059628896578428</v>
+        <v>1.040701548230638</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046117624038343</v>
+        <v>1.054938243564615</v>
       </c>
       <c r="J25">
-        <v>1.041104370104771</v>
+        <v>1.025498654008591</v>
       </c>
       <c r="K25">
-        <v>1.056241771544499</v>
+        <v>1.053807885188663</v>
       </c>
       <c r="L25">
-        <v>1.037620355456714</v>
+        <v>1.020059429333395</v>
       </c>
       <c r="M25">
-        <v>1.062608374499816</v>
+        <v>1.052699252067042</v>
       </c>
       <c r="N25">
-        <v>1.017578039264079</v>
+        <v>1.01193802487293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008184966181762</v>
+        <v>0.9824436756796002</v>
       </c>
       <c r="D2">
-        <v>1.046576569802465</v>
+        <v>1.031715706119801</v>
       </c>
       <c r="E2">
-        <v>1.013369637065657</v>
+        <v>1.001064508380053</v>
       </c>
       <c r="F2">
-        <v>1.046427890968762</v>
+        <v>1.012559778984379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057480186041034</v>
+        <v>1.052614864844927</v>
       </c>
       <c r="J2">
-        <v>1.030123592270234</v>
+        <v>1.005162480544677</v>
       </c>
       <c r="K2">
-        <v>1.057423026219621</v>
+        <v>1.042750189770582</v>
       </c>
       <c r="L2">
-        <v>1.024645801641044</v>
+        <v>1.012509032805682</v>
       </c>
       <c r="M2">
-        <v>1.057276195594888</v>
+        <v>1.02384686591709</v>
       </c>
       <c r="N2">
-        <v>1.01353266255407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005282443235366</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.027445464688568</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041298369632937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01323358291393</v>
+        <v>0.9867577525584025</v>
       </c>
       <c r="D3">
-        <v>1.049927438209322</v>
+        <v>1.034439458255106</v>
       </c>
       <c r="E3">
-        <v>1.017455879470591</v>
+        <v>1.004478699727661</v>
       </c>
       <c r="F3">
-        <v>1.050469832905601</v>
+        <v>1.015853764933327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05924753187482</v>
+        <v>1.053507996487437</v>
       </c>
       <c r="J3">
-        <v>1.03336987489178</v>
+        <v>1.007616041777431</v>
       </c>
       <c r="K3">
-        <v>1.059958987019687</v>
+        <v>1.044649856380049</v>
       </c>
       <c r="L3">
-        <v>1.027870176612663</v>
+        <v>1.015054593709363</v>
       </c>
       <c r="M3">
-        <v>1.060495236188297</v>
+        <v>1.026287734243848</v>
       </c>
       <c r="N3">
-        <v>1.014650963245506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.006161375679397</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.029377281441808</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042638935470448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016428979132688</v>
+        <v>0.9894953505484556</v>
       </c>
       <c r="D4">
-        <v>1.052052458384328</v>
+        <v>1.036133409336444</v>
       </c>
       <c r="E4">
-        <v>1.02004805436262</v>
+        <v>1.006651777770503</v>
       </c>
       <c r="F4">
-        <v>1.053034597651542</v>
+        <v>1.017953155787109</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060356486883884</v>
+        <v>1.054042170556441</v>
       </c>
       <c r="J4">
-        <v>1.035421566016552</v>
+        <v>1.009171637592022</v>
       </c>
       <c r="K4">
-        <v>1.061560764776211</v>
+        <v>1.045814450626915</v>
       </c>
       <c r="L4">
-        <v>1.029910391629151</v>
+        <v>1.016670579186148</v>
       </c>
       <c r="M4">
-        <v>1.062532456414467</v>
+        <v>1.027839625171543</v>
       </c>
       <c r="N4">
-        <v>1.015357233509064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006717588571085</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.030605517315504</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043463288865272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017755895018565</v>
+        <v>0.9906337808742792</v>
       </c>
       <c r="D5">
-        <v>1.052935801208678</v>
+        <v>1.036820365902871</v>
       </c>
       <c r="E5">
-        <v>1.021125838893157</v>
+        <v>1.007556967820502</v>
       </c>
       <c r="F5">
-        <v>1.054101116759536</v>
+        <v>1.018828322145196</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060814623215316</v>
+        <v>1.054251776611012</v>
       </c>
       <c r="J5">
-        <v>1.036272796944354</v>
+        <v>1.009818170123907</v>
       </c>
       <c r="K5">
-        <v>1.062225056099098</v>
+        <v>1.046279834987323</v>
       </c>
       <c r="L5">
-        <v>1.03075742771334</v>
+        <v>1.017342700444569</v>
       </c>
       <c r="M5">
-        <v>1.063378309647752</v>
+        <v>1.02848565534556</v>
       </c>
       <c r="N5">
-        <v>1.015650129661712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.006948499797658</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031116813842431</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043799485926269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017977745269508</v>
+        <v>0.9908242105352412</v>
       </c>
       <c r="D6">
-        <v>1.05308354032424</v>
+        <v>1.036923559183466</v>
       </c>
       <c r="E6">
-        <v>1.021306114860422</v>
+        <v>1.007708470137861</v>
       </c>
       <c r="F6">
-        <v>1.054279515144168</v>
+        <v>1.018974838599603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060891079465099</v>
+        <v>1.054280661119951</v>
       </c>
       <c r="J6">
-        <v>1.03641507094542</v>
+        <v>1.009926295884084</v>
       </c>
       <c r="K6">
-        <v>1.062336067967512</v>
+        <v>1.046345994442321</v>
       </c>
       <c r="L6">
-        <v>1.030899033846221</v>
+        <v>1.017455134312104</v>
       </c>
       <c r="M6">
-        <v>1.063519720718126</v>
+        <v>1.028593757960977</v>
       </c>
       <c r="N6">
-        <v>1.01569907620858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006987101668072</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.0312023709423</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043854965548817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016446773149093</v>
+        <v>0.9895106106756522</v>
       </c>
       <c r="D7">
-        <v>1.052064300583364</v>
+        <v>1.036111273391725</v>
       </c>
       <c r="E7">
-        <v>1.020062502199944</v>
+        <v>1.006663905500218</v>
       </c>
       <c r="F7">
-        <v>1.053048894000844</v>
+        <v>1.017964878621596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060362639939389</v>
+        <v>1.054029050242699</v>
       </c>
       <c r="J7">
-        <v>1.035432984093419</v>
+        <v>1.009180305532678</v>
       </c>
       <c r="K7">
-        <v>1.061569676451864</v>
+        <v>1.045789697503903</v>
       </c>
       <c r="L7">
-        <v>1.029921751201144</v>
+        <v>1.016679588261295</v>
       </c>
       <c r="M7">
-        <v>1.062543799923934</v>
+        <v>1.02784828228438</v>
       </c>
       <c r="N7">
-        <v>1.015361162826665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006720685396764</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.030612368935614</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043465798598075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009906364426488</v>
+        <v>0.9839130744127357</v>
       </c>
       <c r="D8">
-        <v>1.047718163877961</v>
+        <v>1.03260585356644</v>
       </c>
       <c r="E8">
-        <v>1.014761631372179</v>
+        <v>1.002226003122953</v>
       </c>
       <c r="F8">
-        <v>1.047804627149422</v>
+        <v>1.013679786217071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058084778946011</v>
+        <v>1.052903121643441</v>
       </c>
       <c r="J8">
-        <v>1.031231055399156</v>
+        <v>1.005998443109332</v>
       </c>
       <c r="K8">
-        <v>1.05828834651061</v>
+        <v>1.043361553493803</v>
       </c>
       <c r="L8">
-        <v>1.025745291676891</v>
+        <v>1.013375905974746</v>
       </c>
       <c r="M8">
-        <v>1.058373767482354</v>
+        <v>1.024677590376612</v>
       </c>
       <c r="N8">
-        <v>1.013914271078105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.005582120514173</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028102939282429</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04175346688005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9978027038762424</v>
+        <v>0.973615478840802</v>
       </c>
       <c r="D9">
-        <v>1.039712993092054</v>
+        <v>1.025947010716044</v>
       </c>
       <c r="E9">
-        <v>1.005001439632497</v>
+        <v>0.9941159893716012</v>
       </c>
       <c r="F9">
-        <v>1.038155878944877</v>
+        <v>1.005871624346686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053794930138458</v>
+        <v>1.050606670493543</v>
       </c>
       <c r="J9">
-        <v>1.023433293651785</v>
+        <v>1.000135625505606</v>
       </c>
       <c r="K9">
-        <v>1.052193014771275</v>
+        <v>1.038632689353241</v>
       </c>
       <c r="L9">
-        <v>1.018013889816064</v>
+        <v>1.007305257404069</v>
       </c>
       <c r="M9">
-        <v>1.050658815631163</v>
+        <v>1.018870151469942</v>
       </c>
       <c r="N9">
-        <v>1.011225472488931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.003476393975341</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023506644467296</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038406695480428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9892967606676346</v>
+        <v>0.9665414099769377</v>
       </c>
       <c r="D10">
-        <v>1.034119601920768</v>
+        <v>1.021101465566069</v>
       </c>
       <c r="E10">
-        <v>0.9981798728120961</v>
+        <v>0.9886303028925039</v>
       </c>
       <c r="F10">
-        <v>1.031419681698304</v>
+        <v>1.000655595339065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05073345355298</v>
+        <v>1.048825044833017</v>
       </c>
       <c r="J10">
-        <v>1.017941566371261</v>
+        <v>0.9961484161322218</v>
       </c>
       <c r="K10">
-        <v>1.047898981864106</v>
+        <v>1.035099899453644</v>
       </c>
       <c r="L10">
-        <v>1.012582068165428</v>
+        <v>1.003207920612115</v>
       </c>
       <c r="M10">
-        <v>1.045243907263889</v>
+        <v>1.015013022889951</v>
       </c>
       <c r="N10">
-        <v>1.009329831543156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002046068162552</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.020506489779927</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035925579649868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9854982459512263</v>
+        <v>0.9643386137226879</v>
       </c>
       <c r="D11">
-        <v>1.031631023599278</v>
+        <v>1.018835753426407</v>
       </c>
       <c r="E11">
-        <v>0.9951433842120467</v>
+        <v>0.9873060770302331</v>
       </c>
       <c r="F11">
-        <v>1.028423597869701</v>
+        <v>0.9997983913454156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049356068681461</v>
+        <v>1.047958405731333</v>
       </c>
       <c r="J11">
-        <v>1.015487011557925</v>
+        <v>0.9952740649532942</v>
       </c>
       <c r="K11">
-        <v>1.045980100807711</v>
+        <v>1.033410987307601</v>
       </c>
       <c r="L11">
-        <v>1.010157474074433</v>
+        <v>1.002471419347514</v>
       </c>
       <c r="M11">
-        <v>1.042828681587231</v>
+        <v>1.014724110712069</v>
       </c>
       <c r="N11">
-        <v>1.008482209052984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00178862685202</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.020723180018376</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034764279347168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9840688799146555</v>
+        <v>0.9638898528521269</v>
       </c>
       <c r="D12">
-        <v>1.030696120389201</v>
+        <v>1.018013637475623</v>
       </c>
       <c r="E12">
-        <v>0.9940023279672727</v>
+        <v>0.9872422688091267</v>
       </c>
       <c r="F12">
-        <v>1.027298144030258</v>
+        <v>1.00002425465805</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048836308563037</v>
+        <v>1.047644802585686</v>
       </c>
       <c r="J12">
-        <v>1.014563118915158</v>
+        <v>0.995305177094396</v>
       </c>
       <c r="K12">
-        <v>1.045257948963014</v>
+        <v>1.032803674852104</v>
       </c>
       <c r="L12">
-        <v>1.009245343100244</v>
+        <v>1.002618037472157</v>
       </c>
       <c r="M12">
-        <v>1.04192039832535</v>
+        <v>1.015150990001665</v>
       </c>
       <c r="N12">
-        <v>1.008163121401081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.001849283632902</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.021393222710459</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034334889399927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9843763362383985</v>
+        <v>0.9647587465897122</v>
       </c>
       <c r="D13">
-        <v>1.030897145913968</v>
+        <v>1.018198012391345</v>
       </c>
       <c r="E13">
-        <v>0.9942476969128428</v>
+        <v>0.9881428146525586</v>
       </c>
       <c r="F13">
-        <v>1.027540137981492</v>
+        <v>1.001109294242273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048948173288109</v>
+        <v>1.047716200549022</v>
       </c>
       <c r="J13">
-        <v>1.014761858421897</v>
+        <v>0.9960348735542641</v>
       </c>
       <c r="K13">
-        <v>1.045413285669767</v>
+        <v>1.032941786737803</v>
       </c>
       <c r="L13">
-        <v>1.009441530557424</v>
+        <v>1.003455949817795</v>
       </c>
       <c r="M13">
-        <v>1.042115742745332</v>
+        <v>1.016171310145546</v>
       </c>
       <c r="N13">
-        <v>1.008231762457273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002158058504274</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.022480964801716</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034430044465668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9853804766803272</v>
+        <v>0.9659570393589045</v>
       </c>
       <c r="D14">
-        <v>1.031553962298455</v>
+        <v>1.018771207122093</v>
       </c>
       <c r="E14">
-        <v>0.9950493372982087</v>
+        <v>0.98920235377588</v>
       </c>
       <c r="F14">
-        <v>1.028330828055519</v>
+        <v>1.002250604653396</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049313273365042</v>
+        <v>1.04793423915099</v>
       </c>
       <c r="J14">
-        <v>1.015410894358738</v>
+        <v>0.9968557678571476</v>
       </c>
       <c r="K14">
-        <v>1.045920601863194</v>
+        <v>1.033364117080851</v>
       </c>
       <c r="L14">
-        <v>1.010082316011373</v>
+        <v>1.00434805212245</v>
       </c>
       <c r="M14">
-        <v>1.042753833699714</v>
+        <v>1.017147115633188</v>
       </c>
       <c r="N14">
-        <v>1.008455921037092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00248416413275</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.023427892250999</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03473007202289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9859966845924506</v>
+        <v>0.9665396320925536</v>
       </c>
       <c r="D15">
-        <v>1.031957236185566</v>
+        <v>1.019108068208946</v>
       </c>
       <c r="E15">
-        <v>0.9955414861366277</v>
+        <v>0.9896793291144846</v>
       </c>
       <c r="F15">
-        <v>1.028816311248619</v>
+        <v>1.002733164484663</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049537133843981</v>
+        <v>1.048060129525918</v>
       </c>
       <c r="J15">
-        <v>1.015809154866943</v>
+        <v>0.9972138578776099</v>
       </c>
       <c r="K15">
-        <v>1.046231917308851</v>
+        <v>1.033608434236134</v>
       </c>
       <c r="L15">
-        <v>1.01047557789794</v>
+        <v>1.004725511998098</v>
       </c>
       <c r="M15">
-        <v>1.043145486083188</v>
+        <v>1.017532078652166</v>
       </c>
       <c r="N15">
-        <v>1.008593463532064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.002619441093667</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.023770132787404</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034908687155652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9895463332166149</v>
+        <v>0.9693547404443951</v>
       </c>
       <c r="D16">
-        <v>1.03428331321958</v>
+        <v>1.021131959861315</v>
       </c>
       <c r="E16">
-        <v>0.9983795898731757</v>
+        <v>0.9918203059336074</v>
       </c>
       <c r="F16">
-        <v>1.031616796130116</v>
+        <v>1.004756848445072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050823745404088</v>
+        <v>1.048821683074064</v>
       </c>
       <c r="J16">
-        <v>1.018102798592767</v>
+        <v>0.9987584158868714</v>
       </c>
       <c r="K16">
-        <v>1.048025039724822</v>
+        <v>1.035094283000654</v>
       </c>
       <c r="L16">
-        <v>1.012741399113056</v>
+        <v>1.006301717467489</v>
       </c>
       <c r="M16">
-        <v>1.045402664578862</v>
+        <v>1.019004317476653</v>
       </c>
       <c r="N16">
-        <v>1.00938550273379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.003163286687631</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.024894605698952</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035962398534004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9917412974443487</v>
+        <v>0.9708889826706091</v>
       </c>
       <c r="D17">
-        <v>1.035724207523849</v>
+        <v>1.022375989757669</v>
       </c>
       <c r="E17">
-        <v>1.000137207497897</v>
+        <v>0.9929099928177803</v>
       </c>
       <c r="F17">
-        <v>1.033351789536078</v>
+        <v>1.005707855188475</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0516167008488</v>
+        <v>1.049283697795482</v>
       </c>
       <c r="J17">
-        <v>1.019520587089672</v>
+        <v>0.9995137216117087</v>
       </c>
       <c r="K17">
-        <v>1.049133571639517</v>
+        <v>1.036002740848743</v>
       </c>
       <c r="L17">
-        <v>1.014142831397394</v>
+        <v>1.007043488149307</v>
       </c>
       <c r="M17">
-        <v>1.046799263868531</v>
+        <v>1.019616539751049</v>
       </c>
       <c r="N17">
-        <v>1.009875005668907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00340957157534</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.025247898884325</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036607293745203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9930105282867511</v>
+        <v>0.9714488666075306</v>
       </c>
       <c r="D18">
-        <v>1.036558268219445</v>
+        <v>1.023127625980183</v>
       </c>
       <c r="E18">
-        <v>1.001154469434919</v>
+        <v>0.9931611960251234</v>
       </c>
       <c r="F18">
-        <v>1.034356181335532</v>
+        <v>1.005762462935156</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052074251681993</v>
+        <v>1.049565349526274</v>
       </c>
       <c r="J18">
-        <v>1.020340215028362</v>
+        <v>0.9996356526285946</v>
       </c>
       <c r="K18">
-        <v>1.049774447219395</v>
+        <v>1.036558740779539</v>
       </c>
       <c r="L18">
-        <v>1.014953304943815</v>
+        <v>1.007099029603104</v>
       </c>
       <c r="M18">
-        <v>1.047607111292762</v>
+        <v>1.019482464612632</v>
       </c>
       <c r="N18">
-        <v>1.010157954404838</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003414189836681</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.024900871816382</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036988772198025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9934414599231143</v>
+        <v>0.971131913565519</v>
       </c>
       <c r="D19">
-        <v>1.036841593158929</v>
+        <v>1.023355270026981</v>
       </c>
       <c r="E19">
-        <v>1.001500006622153</v>
+        <v>0.9926524764975068</v>
       </c>
       <c r="F19">
-        <v>1.034697383236749</v>
+        <v>1.004996322794613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05222943286025</v>
+        <v>1.049646710573687</v>
       </c>
       <c r="J19">
-        <v>1.020618460300283</v>
+        <v>0.9991903996662083</v>
       </c>
       <c r="K19">
-        <v>1.049992013419454</v>
+        <v>1.036720231999299</v>
       </c>
       <c r="L19">
-        <v>1.015228493428952</v>
+        <v>1.006534022898833</v>
       </c>
       <c r="M19">
-        <v>1.047881435312915</v>
+        <v>1.018665283265525</v>
       </c>
       <c r="N19">
-        <v>1.010254003000256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003207180784527</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.023923839282369</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037109338987922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9915069496119302</v>
+        <v>0.9683802644551152</v>
       </c>
       <c r="D20">
-        <v>1.03557027769525</v>
+        <v>1.022246233228502</v>
       </c>
       <c r="E20">
-        <v>0.9999494568478492</v>
+        <v>0.9900552526581776</v>
       </c>
       <c r="F20">
-        <v>1.033166431976291</v>
+        <v>1.002012029235278</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051532140500815</v>
+        <v>1.049236113229908</v>
       </c>
       <c r="J20">
-        <v>1.019369235996048</v>
+        <v>0.9971869431265707</v>
       </c>
       <c r="K20">
-        <v>1.049015230649675</v>
+        <v>1.035908872219014</v>
       </c>
       <c r="L20">
-        <v>1.013993195054293</v>
+        <v>1.004275251875069</v>
       </c>
       <c r="M20">
-        <v>1.046650125691074</v>
+        <v>1.01601959155856</v>
       </c>
       <c r="N20">
-        <v>1.009822753982039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002419156617134</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021292318441417</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036539590958871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9850853002902786</v>
+        <v>0.962883126171084</v>
       </c>
       <c r="D21">
-        <v>1.031360841482328</v>
+        <v>1.018561762570791</v>
       </c>
       <c r="E21">
-        <v>0.994813643980953</v>
+        <v>0.9857357682904541</v>
       </c>
       <c r="F21">
-        <v>1.028098342263963</v>
+        <v>0.9978312429215023</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049205988205697</v>
+        <v>1.047849518512412</v>
       </c>
       <c r="J21">
-        <v>1.015220110680099</v>
+        <v>0.9940190477249832</v>
       </c>
       <c r="K21">
-        <v>1.045771472987377</v>
+        <v>1.033199807862704</v>
       </c>
       <c r="L21">
-        <v>1.009893944178353</v>
+        <v>1.000992515613279</v>
       </c>
       <c r="M21">
-        <v>1.042566244655913</v>
+        <v>1.012853819889904</v>
       </c>
       <c r="N21">
-        <v>1.008390030875532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001271505648323</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.018744988729427</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034627420902551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9809405249016376</v>
+        <v>0.9594052511874136</v>
       </c>
       <c r="D22">
-        <v>1.028652962349771</v>
+        <v>1.016211729832292</v>
       </c>
       <c r="E22">
-        <v>0.9915079503821177</v>
+        <v>0.9830355660632415</v>
       </c>
       <c r="F22">
-        <v>1.024838711645677</v>
+        <v>0.9952461478428731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047696158523059</v>
+        <v>1.046951810210822</v>
       </c>
       <c r="J22">
-        <v>1.012540665011147</v>
+        <v>0.9920366951023172</v>
       </c>
       <c r="K22">
-        <v>1.04367739529056</v>
+        <v>1.031468728027043</v>
       </c>
       <c r="L22">
-        <v>1.007249534645083</v>
+        <v>0.9989507528525552</v>
       </c>
       <c r="M22">
-        <v>1.03993366192391</v>
+        <v>1.01091237139876</v>
       </c>
       <c r="N22">
-        <v>1.00746455257003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000555618799108</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.017208412359254</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033389965836677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.983148301581133</v>
+        <v>0.9612565499816466</v>
       </c>
       <c r="D23">
-        <v>1.030094451829582</v>
+        <v>1.017515413763638</v>
       </c>
       <c r="E23">
-        <v>0.9932678860015741</v>
+        <v>0.984471970014947</v>
       </c>
       <c r="F23">
-        <v>1.026573870229757</v>
+        <v>0.9966209903713994</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048501158904892</v>
+        <v>1.047457812287321</v>
       </c>
       <c r="J23">
-        <v>1.013968025755973</v>
+        <v>0.9930919001850422</v>
       </c>
       <c r="K23">
-        <v>1.044792839871391</v>
+        <v>1.032442726050403</v>
       </c>
       <c r="L23">
-        <v>1.008657963124661</v>
+        <v>1.000037337212711</v>
       </c>
       <c r="M23">
-        <v>1.041335593796342</v>
+        <v>1.011945313361059</v>
       </c>
       <c r="N23">
-        <v>1.007957581401613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00093675139769</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.01802594374296</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034068981742208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9916128753918844</v>
+        <v>0.9683804343761253</v>
       </c>
       <c r="D24">
-        <v>1.035639851663241</v>
+        <v>1.022379448430008</v>
       </c>
       <c r="E24">
-        <v>1.000034317726503</v>
+        <v>0.9900192137775923</v>
       </c>
       <c r="F24">
-        <v>1.03325021051831</v>
+        <v>1.001937611402619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051570365003986</v>
+        <v>1.049295374499285</v>
       </c>
       <c r="J24">
-        <v>1.019437647688019</v>
+        <v>0.9971524342499316</v>
       </c>
       <c r="K24">
-        <v>1.049068721469093</v>
+        <v>1.036024632562382</v>
       </c>
       <c r="L24">
-        <v>1.01406083073391</v>
+        <v>1.004223900002495</v>
       </c>
       <c r="M24">
-        <v>1.046717535679613</v>
+        <v>1.015930785641417</v>
       </c>
       <c r="N24">
-        <v>1.009846372196519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002401863267745</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02118027289299</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036594058347645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001005067102654</v>
+        <v>0.976332210261736</v>
       </c>
       <c r="D25">
-        <v>1.041825932034552</v>
+        <v>1.027667473555822</v>
       </c>
       <c r="E25">
-        <v>1.007577618174889</v>
+        <v>0.9962489001701355</v>
       </c>
       <c r="F25">
-        <v>1.040701548230638</v>
+        <v>1.007922456626812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054938243564615</v>
+        <v>1.051207802065179</v>
       </c>
       <c r="J25">
-        <v>1.025498654008591</v>
+        <v>1.001683213305742</v>
       </c>
       <c r="K25">
-        <v>1.053807885188663</v>
+        <v>1.039850950245993</v>
       </c>
       <c r="L25">
-        <v>1.020059429333395</v>
+        <v>1.008905727571802</v>
       </c>
       <c r="M25">
-        <v>1.052699252067042</v>
+        <v>1.020399019068845</v>
       </c>
       <c r="N25">
-        <v>1.01193802487293</v>
+        <v>1.004033084028311</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024716669019878</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039296591442814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824436756796002</v>
+        <v>0.9835858147894926</v>
       </c>
       <c r="D2">
-        <v>1.031715706119801</v>
+        <v>1.03267105255198</v>
       </c>
       <c r="E2">
-        <v>1.001064508380053</v>
+        <v>1.001980461325574</v>
       </c>
       <c r="F2">
-        <v>1.012559778984379</v>
+        <v>1.013299364949778</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052614864844927</v>
+        <v>1.053100012517021</v>
       </c>
       <c r="J2">
-        <v>1.005162480544677</v>
+        <v>1.006268805805741</v>
       </c>
       <c r="K2">
-        <v>1.042750189770582</v>
+        <v>1.04369324518433</v>
       </c>
       <c r="L2">
-        <v>1.012509032805682</v>
+        <v>1.01341227395973</v>
       </c>
       <c r="M2">
-        <v>1.02384686591709</v>
+        <v>1.024576476398266</v>
       </c>
       <c r="N2">
-        <v>1.005282443235366</v>
+        <v>1.008564610874816</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.027445464688568</v>
+        <v>1.028022912935321</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041298369632937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041973922719904</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021682796963062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9867577525584025</v>
+        <v>0.9878236809365255</v>
       </c>
       <c r="D3">
-        <v>1.034439458255106</v>
+        <v>1.034642566585707</v>
       </c>
       <c r="E3">
-        <v>1.004478699727661</v>
+        <v>1.005334465302534</v>
       </c>
       <c r="F3">
-        <v>1.015853764933327</v>
+        <v>1.016544343993617</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053507996487437</v>
+        <v>1.053611245033863</v>
       </c>
       <c r="J3">
-        <v>1.007616041777431</v>
+        <v>1.008651879780534</v>
       </c>
       <c r="K3">
-        <v>1.044649856380049</v>
+        <v>1.044850576411986</v>
       </c>
       <c r="L3">
-        <v>1.015054593709363</v>
+        <v>1.015899542651844</v>
       </c>
       <c r="M3">
-        <v>1.026287734243848</v>
+        <v>1.026969824309749</v>
       </c>
       <c r="N3">
-        <v>1.006161375679397</v>
+        <v>1.009246359838556</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029377281441808</v>
+        <v>1.029917118287875</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042638935470448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042789322417293</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022177452463835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9894953505484556</v>
+        <v>0.9905137168152682</v>
       </c>
       <c r="D4">
-        <v>1.036133409336444</v>
+        <v>1.035879113606278</v>
       </c>
       <c r="E4">
-        <v>1.006651777770503</v>
+        <v>1.007469899913132</v>
       </c>
       <c r="F4">
-        <v>1.017953155787109</v>
+        <v>1.018613110952206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054042170556441</v>
+        <v>1.053912814557925</v>
       </c>
       <c r="J4">
-        <v>1.009171637592022</v>
+        <v>1.010163235393327</v>
       </c>
       <c r="K4">
-        <v>1.045814450626915</v>
+        <v>1.045562967168456</v>
       </c>
       <c r="L4">
-        <v>1.016670579186148</v>
+        <v>1.017478998151571</v>
       </c>
       <c r="M4">
-        <v>1.027839625171543</v>
+        <v>1.028491964776459</v>
       </c>
       <c r="N4">
-        <v>1.006717588571085</v>
+        <v>1.009677891441229</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.030605517315504</v>
+        <v>1.031121807400067</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043463288865272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043294011146811</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022474858616132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9906337808742792</v>
+        <v>0.991632549333182</v>
       </c>
       <c r="D5">
-        <v>1.036820365902871</v>
+        <v>1.036388149721047</v>
       </c>
       <c r="E5">
-        <v>1.007556967820502</v>
+        <v>1.008359561236205</v>
       </c>
       <c r="F5">
-        <v>1.018828322145196</v>
+        <v>1.019475650378879</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054251776611012</v>
+        <v>1.054031852894685</v>
       </c>
       <c r="J5">
-        <v>1.009818170123907</v>
+        <v>1.010791482934846</v>
       </c>
       <c r="K5">
-        <v>1.046279834987323</v>
+        <v>1.045852273277076</v>
       </c>
       <c r="L5">
-        <v>1.017342700444569</v>
+        <v>1.01813603377103</v>
       </c>
       <c r="M5">
-        <v>1.02848565534556</v>
+        <v>1.029125715610848</v>
       </c>
       <c r="N5">
-        <v>1.006948499797658</v>
+        <v>1.009857063945692</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031116813842431</v>
+        <v>1.031623385152366</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043799485926269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043506409279756</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022589975024446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9908242105352412</v>
+        <v>0.9918197111221601</v>
       </c>
       <c r="D6">
-        <v>1.036923559183466</v>
+        <v>1.036471139541299</v>
       </c>
       <c r="E6">
-        <v>1.007708470137861</v>
+        <v>1.008508473181516</v>
       </c>
       <c r="F6">
-        <v>1.018974838599603</v>
+        <v>1.019620060862135</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054280661119951</v>
+        <v>1.054050446324456</v>
       </c>
       <c r="J6">
-        <v>1.009926295884084</v>
+        <v>1.010896556552913</v>
       </c>
       <c r="K6">
-        <v>1.046345994442321</v>
+        <v>1.045898424968658</v>
       </c>
       <c r="L6">
-        <v>1.017455134312104</v>
+        <v>1.018245950252285</v>
       </c>
       <c r="M6">
-        <v>1.028593757960977</v>
+        <v>1.02923176951167</v>
       </c>
       <c r="N6">
-        <v>1.006987101668072</v>
+        <v>1.009887017830986</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0312023709423</v>
+        <v>1.031707320749732</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043854965548817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043548600658719</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022603430980409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9895106106756522</v>
+        <v>0.9905400557373705</v>
       </c>
       <c r="D7">
-        <v>1.036111273391725</v>
+        <v>1.035880105727482</v>
       </c>
       <c r="E7">
-        <v>1.006663905500218</v>
+        <v>1.007491471928838</v>
       </c>
       <c r="F7">
-        <v>1.017964878621596</v>
+        <v>1.018632321521951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054029050242699</v>
+        <v>1.053911458719176</v>
       </c>
       <c r="J7">
-        <v>1.009180305532678</v>
+        <v>1.010182702394475</v>
       </c>
       <c r="K7">
-        <v>1.045789697503903</v>
+        <v>1.045561085549753</v>
       </c>
       <c r="L7">
-        <v>1.016679588261295</v>
+        <v>1.017497343200595</v>
       </c>
       <c r="M7">
-        <v>1.02784828228438</v>
+        <v>1.028508026084847</v>
       </c>
       <c r="N7">
-        <v>1.006720685396764</v>
+        <v>1.009709830735108</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.030612368935614</v>
+        <v>1.031134519016918</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043465798598075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043314665332055</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022461002798823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839130744127357</v>
+        <v>0.985064226089623</v>
       </c>
       <c r="D8">
-        <v>1.03260585356644</v>
+        <v>1.033335368472088</v>
       </c>
       <c r="E8">
-        <v>1.002226003122953</v>
+        <v>1.00315135255161</v>
       </c>
       <c r="F8">
-        <v>1.013679786217071</v>
+        <v>1.014426371060534</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052903121643441</v>
+        <v>1.053273713372082</v>
       </c>
       <c r="J8">
-        <v>1.005998443109332</v>
+        <v>1.007114736439932</v>
       </c>
       <c r="K8">
-        <v>1.043361553493803</v>
+        <v>1.044081957631537</v>
       </c>
       <c r="L8">
-        <v>1.013375905974746</v>
+        <v>1.014288805307134</v>
       </c>
       <c r="M8">
-        <v>1.024677590376612</v>
+        <v>1.02541441045888</v>
       </c>
       <c r="N8">
-        <v>1.005582120514173</v>
+        <v>1.00888717859325</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028102939282429</v>
+        <v>1.028686092989315</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04175346688005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042273806848243</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021833320647144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973615478840802</v>
+        <v>0.9749593088761169</v>
       </c>
       <c r="D9">
-        <v>1.025947010716044</v>
+        <v>1.028560056392763</v>
       </c>
       <c r="E9">
-        <v>0.9941159893716012</v>
+        <v>0.9951934795366494</v>
       </c>
       <c r="F9">
-        <v>1.005871624346686</v>
+        <v>1.006742130897467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050606670493543</v>
+        <v>1.051931032202241</v>
       </c>
       <c r="J9">
-        <v>1.000135625505606</v>
+        <v>1.001428398457898</v>
       </c>
       <c r="K9">
-        <v>1.038632689353241</v>
+        <v>1.041206158333062</v>
       </c>
       <c r="L9">
-        <v>1.007305257404069</v>
+        <v>1.008365023531997</v>
       </c>
       <c r="M9">
-        <v>1.018870151469942</v>
+        <v>1.019726760676811</v>
       </c>
       <c r="N9">
-        <v>1.003476393975341</v>
+        <v>1.007266149951873</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023506644467296</v>
+        <v>1.024184609373697</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038406695480428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040237012143814</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020579857553932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665414099769377</v>
+        <v>0.9680737700752715</v>
       </c>
       <c r="D10">
-        <v>1.021101465566069</v>
+        <v>1.025158086322771</v>
       </c>
       <c r="E10">
-        <v>0.9886303028925039</v>
+        <v>0.9898596023602266</v>
       </c>
       <c r="F10">
-        <v>1.000655595339065</v>
+        <v>1.001648792343449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048825044833017</v>
+        <v>1.050877976919746</v>
       </c>
       <c r="J10">
-        <v>0.9961484161322218</v>
+        <v>0.9976139497547244</v>
       </c>
       <c r="K10">
-        <v>1.035099899453644</v>
+        <v>1.039087490112115</v>
       </c>
       <c r="L10">
-        <v>1.003207920612115</v>
+        <v>1.004414390740987</v>
       </c>
       <c r="M10">
-        <v>1.015013022889951</v>
+        <v>1.015988341011384</v>
       </c>
       <c r="N10">
-        <v>1.002046068162552</v>
+        <v>1.006294240348429</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020506489779927</v>
+        <v>1.021278360210372</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035925579649868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03875739549299</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019615551944092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643386137226879</v>
+        <v>0.9660063858362486</v>
       </c>
       <c r="D11">
-        <v>1.018835753426407</v>
+        <v>1.023611107198031</v>
       </c>
       <c r="E11">
-        <v>0.9873060770302331</v>
+        <v>0.9886479344041857</v>
       </c>
       <c r="F11">
-        <v>0.9997983913454156</v>
+        <v>1.000880325383638</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047958405731333</v>
+        <v>1.050373518094455</v>
       </c>
       <c r="J11">
-        <v>0.9952740649532942</v>
+        <v>0.9968650568915042</v>
       </c>
       <c r="K11">
-        <v>1.033410987307601</v>
+        <v>1.038101078556553</v>
       </c>
       <c r="L11">
-        <v>1.002471419347514</v>
+        <v>1.003787157103791</v>
       </c>
       <c r="M11">
-        <v>1.014724110712069</v>
+        <v>1.015785659130985</v>
       </c>
       <c r="N11">
-        <v>1.00178862685202</v>
+        <v>1.006360152753078</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.020723180018376</v>
+        <v>1.021562853240894</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034764279347168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038095864133235</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019138601800667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9638898528521269</v>
+        <v>0.9656013987870632</v>
       </c>
       <c r="D12">
-        <v>1.018013637475623</v>
+        <v>1.023038825077009</v>
       </c>
       <c r="E12">
-        <v>0.9872422688091267</v>
+        <v>0.9886203785849631</v>
       </c>
       <c r="F12">
-        <v>1.00002425465805</v>
+        <v>1.001134247887569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047644802585686</v>
+        <v>1.050185667413608</v>
       </c>
       <c r="J12">
-        <v>0.995305177094396</v>
+        <v>0.996936447454307</v>
       </c>
       <c r="K12">
-        <v>1.032803674852104</v>
+        <v>1.037737559260883</v>
       </c>
       <c r="L12">
-        <v>1.002618037472157</v>
+        <v>1.003968890522573</v>
       </c>
       <c r="M12">
-        <v>1.015150990001665</v>
+        <v>1.01623974971274</v>
       </c>
       <c r="N12">
-        <v>1.001849283632902</v>
+        <v>1.00652450322737</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.021393222710459</v>
+        <v>1.022254117556601</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034334889399927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037838851520264</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01897237462762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9647587465897122</v>
+        <v>0.9664302447226011</v>
       </c>
       <c r="D13">
-        <v>1.018198012391345</v>
+        <v>1.023164193668911</v>
       </c>
       <c r="E13">
-        <v>0.9881428146525586</v>
+        <v>0.9894871287999888</v>
       </c>
       <c r="F13">
-        <v>1.001109294242273</v>
+        <v>1.002191714902029</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047716200549022</v>
+        <v>1.050227357792131</v>
       </c>
       <c r="J13">
-        <v>0.9960348735542641</v>
+        <v>0.997628461293969</v>
       </c>
       <c r="K13">
-        <v>1.032941786737803</v>
+        <v>1.037818073877925</v>
       </c>
       <c r="L13">
-        <v>1.003455949817795</v>
+        <v>1.004773827496629</v>
       </c>
       <c r="M13">
-        <v>1.016171310145546</v>
+        <v>1.017233152006192</v>
       </c>
       <c r="N13">
-        <v>1.002158058504274</v>
+        <v>1.006735835188757</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.022480964801716</v>
+        <v>1.023320358215148</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034430044465668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037893052267211</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01901142819507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9659570393589045</v>
+        <v>0.9675638801545697</v>
       </c>
       <c r="D14">
-        <v>1.018771207122093</v>
+        <v>1.023564911344707</v>
       </c>
       <c r="E14">
-        <v>0.98920235377588</v>
+        <v>0.9904926521476261</v>
       </c>
       <c r="F14">
-        <v>1.002250604653396</v>
+        <v>1.003289608532378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04793423915099</v>
+        <v>1.05035858502326</v>
       </c>
       <c r="J14">
-        <v>0.9968557678571476</v>
+        <v>0.9983888757857207</v>
       </c>
       <c r="K14">
-        <v>1.033364117080851</v>
+        <v>1.038072107401976</v>
       </c>
       <c r="L14">
-        <v>1.00434805212245</v>
+        <v>1.005613325825531</v>
       </c>
       <c r="M14">
-        <v>1.017147115633188</v>
+        <v>1.018166640966049</v>
       </c>
       <c r="N14">
-        <v>1.00248416413275</v>
+        <v>1.006904752347148</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.023427892250999</v>
+        <v>1.024233723196426</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03473007202289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038074214175951</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.0191263060664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9665396320925536</v>
+        <v>0.9681139922618932</v>
       </c>
       <c r="D15">
-        <v>1.019108068208946</v>
+        <v>1.023806402067621</v>
       </c>
       <c r="E15">
-        <v>0.9896793291144846</v>
+        <v>0.9909426387345845</v>
       </c>
       <c r="F15">
-        <v>1.002733164484663</v>
+        <v>1.003750560486336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048060129525918</v>
+        <v>1.050436485374777</v>
       </c>
       <c r="J15">
-        <v>0.9972138578776099</v>
+        <v>0.9987166406685989</v>
       </c>
       <c r="K15">
-        <v>1.033608434236134</v>
+        <v>1.038223393934405</v>
       </c>
       <c r="L15">
-        <v>1.004725511998098</v>
+        <v>1.005964518918554</v>
       </c>
       <c r="M15">
-        <v>1.017532078652166</v>
+        <v>1.018530555265097</v>
       </c>
       <c r="N15">
-        <v>1.002619441093667</v>
+        <v>1.006960927114684</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.023770132787404</v>
+        <v>1.02455930584733</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034908687155652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038187592030952</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019190241675908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9693547404443951</v>
+        <v>0.9707809739301739</v>
       </c>
       <c r="D16">
-        <v>1.021131959861315</v>
+        <v>1.025224592670646</v>
       </c>
       <c r="E16">
-        <v>0.9918203059336074</v>
+        <v>0.9929613493529369</v>
       </c>
       <c r="F16">
-        <v>1.004756848445072</v>
+        <v>1.005676555752783</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048821683074064</v>
+        <v>1.050892921713211</v>
       </c>
       <c r="J16">
-        <v>0.9987584158868714</v>
+        <v>1.000123154507762</v>
       </c>
       <c r="K16">
-        <v>1.035094283000654</v>
+        <v>1.03911748479336</v>
       </c>
       <c r="L16">
-        <v>1.006301717467489</v>
+        <v>1.007421807187224</v>
       </c>
       <c r="M16">
-        <v>1.019004317476653</v>
+        <v>1.019907690248961</v>
       </c>
       <c r="N16">
-        <v>1.003163286687631</v>
+        <v>1.007142970796846</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.024894605698952</v>
+        <v>1.025608631844855</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035962398534004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038823190877619</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019594419368369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9708889826706091</v>
+        <v>0.9722481365349577</v>
       </c>
       <c r="D17">
-        <v>1.022375989757669</v>
+        <v>1.02610049292616</v>
       </c>
       <c r="E17">
-        <v>0.9929099928177803</v>
+        <v>0.9939961247695112</v>
       </c>
       <c r="F17">
-        <v>1.005707855188475</v>
+        <v>1.006583769077249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049283697795482</v>
+        <v>1.051169341390336</v>
       </c>
       <c r="J17">
-        <v>0.9995137216117087</v>
+        <v>1.000816196072489</v>
       </c>
       <c r="K17">
-        <v>1.036002740848743</v>
+        <v>1.039665855848843</v>
       </c>
       <c r="L17">
-        <v>1.007043488149307</v>
+        <v>1.008110249009787</v>
       </c>
       <c r="M17">
-        <v>1.019616539751049</v>
+        <v>1.020477337395477</v>
       </c>
       <c r="N17">
-        <v>1.00340957157534</v>
+        <v>1.007225234528731</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.025247898884325</v>
+        <v>1.025928342868383</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036607293745203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039213727079841</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019840528138042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714488666075306</v>
+        <v>0.972787613959803</v>
       </c>
       <c r="D18">
-        <v>1.023127625980183</v>
+        <v>1.026616761863988</v>
       </c>
       <c r="E18">
-        <v>0.9931611960251234</v>
+        <v>0.994230833242306</v>
       </c>
       <c r="F18">
-        <v>1.005762462935156</v>
+        <v>1.006625551811965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049565349526274</v>
+        <v>1.051332223212469</v>
       </c>
       <c r="J18">
-        <v>0.9996356526285946</v>
+        <v>1.000919611091804</v>
       </c>
       <c r="K18">
-        <v>1.036558740779539</v>
+        <v>1.0399913447392</v>
       </c>
       <c r="L18">
-        <v>1.007099029603104</v>
+        <v>1.008149898673849</v>
       </c>
       <c r="M18">
-        <v>1.019482464612632</v>
+        <v>1.020330891308529</v>
       </c>
       <c r="N18">
-        <v>1.003414189836681</v>
+        <v>1.007181714480135</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.024900871816382</v>
+        <v>1.025571680272864</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036988772198025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039431138100372</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019997097556995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.971131913565519</v>
+        <v>0.9724829440449998</v>
       </c>
       <c r="D19">
-        <v>1.023355270026981</v>
+        <v>1.026784025111738</v>
       </c>
       <c r="E19">
-        <v>0.9926524764975068</v>
+        <v>0.9937323476562145</v>
       </c>
       <c r="F19">
-        <v>1.004996322794613</v>
+        <v>1.005868287059125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049646710573687</v>
+        <v>1.051383138267903</v>
       </c>
       <c r="J19">
-        <v>0.9991903996662083</v>
+        <v>1.000486414545576</v>
       </c>
       <c r="K19">
-        <v>1.036720231999299</v>
+        <v>1.040093756920901</v>
       </c>
       <c r="L19">
-        <v>1.006534022898833</v>
+        <v>1.007595023510354</v>
       </c>
       <c r="M19">
-        <v>1.018665283265525</v>
+        <v>1.019522485141896</v>
       </c>
       <c r="N19">
-        <v>1.003207180784527</v>
+        <v>1.007008146701094</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.023923839282369</v>
+        <v>1.024601814518527</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037109338987922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039510529466251</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020037904683708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9683802644551152</v>
+        <v>0.9698308427733485</v>
       </c>
       <c r="D20">
-        <v>1.022246233228502</v>
+        <v>1.026007846042965</v>
       </c>
       <c r="E20">
-        <v>0.9900552526581776</v>
+        <v>0.9912169422379452</v>
       </c>
       <c r="F20">
-        <v>1.002012029235278</v>
+        <v>1.002951033101241</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049236113229908</v>
+        <v>1.05114046757727</v>
       </c>
       <c r="J20">
-        <v>0.9971869431265707</v>
+        <v>0.9985763992079072</v>
       </c>
       <c r="K20">
-        <v>1.035908872219014</v>
+        <v>1.039608291675256</v>
       </c>
       <c r="L20">
-        <v>1.004275251875069</v>
+        <v>1.00541600951818</v>
       </c>
       <c r="M20">
-        <v>1.01601959155856</v>
+        <v>1.016942189870667</v>
       </c>
       <c r="N20">
-        <v>1.002419156617134</v>
+        <v>1.006468950972237</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021292318441417</v>
+        <v>1.022022475167018</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036539590958871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039171569203108</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019815635694113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.962883126171084</v>
+        <v>0.9646427801828817</v>
       </c>
       <c r="D21">
-        <v>1.018561762570791</v>
+        <v>1.023434547462025</v>
       </c>
       <c r="E21">
-        <v>0.9857357682904541</v>
+        <v>0.9871558417329014</v>
       </c>
       <c r="F21">
-        <v>0.9978312429215023</v>
+        <v>0.9989769007642377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047849518512412</v>
+        <v>1.050313735026769</v>
       </c>
       <c r="J21">
-        <v>0.9940190477249832</v>
+        <v>0.9956969390839687</v>
       </c>
       <c r="K21">
-        <v>1.033199807862704</v>
+        <v>1.037985142675742</v>
       </c>
       <c r="L21">
-        <v>1.000992515613279</v>
+        <v>1.002384706012487</v>
       </c>
       <c r="M21">
-        <v>1.012853819889904</v>
+        <v>1.013977682032711</v>
       </c>
       <c r="N21">
-        <v>1.001271505648323</v>
+        <v>1.006066763634813</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.018744988729427</v>
+        <v>1.019634477617703</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034627420902551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03802749301011</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019074662490794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9594052511874136</v>
+        <v>0.9613618160279862</v>
       </c>
       <c r="D22">
-        <v>1.016211729832292</v>
+        <v>1.021787310649301</v>
       </c>
       <c r="E22">
-        <v>0.9830355660632415</v>
+        <v>0.9846210009573705</v>
       </c>
       <c r="F22">
-        <v>0.9952461478428731</v>
+        <v>0.9965238456755736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046951810210822</v>
+        <v>1.049769534236511</v>
       </c>
       <c r="J22">
-        <v>0.9920366951023172</v>
+        <v>0.9938968023336288</v>
       </c>
       <c r="K22">
-        <v>1.031468728027043</v>
+        <v>1.036939169674674</v>
       </c>
       <c r="L22">
-        <v>0.9989507528525552</v>
+        <v>1.000503401592464</v>
       </c>
       <c r="M22">
-        <v>1.01091237139876</v>
+        <v>1.012164481830407</v>
       </c>
       <c r="N22">
-        <v>1.000555618799108</v>
+        <v>1.005815643022639</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.017208412359254</v>
+        <v>1.018199406507186</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033389965836677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03727321145127</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018606953098896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9612565499816466</v>
+        <v>0.963088982747069</v>
       </c>
       <c r="D23">
-        <v>1.017515413763638</v>
+        <v>1.022680137914083</v>
       </c>
       <c r="E23">
-        <v>0.984471970014947</v>
+        <v>0.9859524804436151</v>
       </c>
       <c r="F23">
-        <v>0.9966209903713994</v>
+        <v>0.9978150800040717</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047457812287321</v>
+        <v>1.050068838996474</v>
       </c>
       <c r="J23">
-        <v>0.9930919001850422</v>
+        <v>0.9948367672400218</v>
       </c>
       <c r="K23">
-        <v>1.032442726050403</v>
+        <v>1.037512571067802</v>
       </c>
       <c r="L23">
-        <v>1.000037337212711</v>
+        <v>1.001488055081234</v>
       </c>
       <c r="M23">
-        <v>1.011945313361059</v>
+        <v>1.013116126907337</v>
       </c>
       <c r="N23">
-        <v>1.00093675139769</v>
+        <v>1.00590353645925</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.01802594374296</v>
+        <v>1.018952593637421</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034068981742208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037668093946666</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018878824005317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9683804343761253</v>
+        <v>0.9698305743708622</v>
       </c>
       <c r="D24">
-        <v>1.022379448430008</v>
+        <v>1.026071666195052</v>
       </c>
       <c r="E24">
-        <v>0.9900192137775923</v>
+        <v>0.9911805643354988</v>
       </c>
       <c r="F24">
-        <v>1.001937611402619</v>
+        <v>1.002876453500361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049295374499285</v>
+        <v>1.051164634717676</v>
       </c>
       <c r="J24">
-        <v>0.9971524342499316</v>
+        <v>0.9985415570361513</v>
       </c>
       <c r="K24">
-        <v>1.036024632562382</v>
+        <v>1.039655897592099</v>
       </c>
       <c r="L24">
-        <v>1.004223900002495</v>
+        <v>1.005364349805773</v>
       </c>
       <c r="M24">
-        <v>1.015930785641417</v>
+        <v>1.016853242993383</v>
       </c>
       <c r="N24">
-        <v>1.002401863267745</v>
+        <v>1.006450969773056</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02118027289299</v>
+        <v>1.021910355920895</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036594058347645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039175293390726</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019860130397933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.976332210261736</v>
+        <v>0.9776103360473505</v>
       </c>
       <c r="D25">
-        <v>1.027667473555822</v>
+        <v>1.029813445269603</v>
       </c>
       <c r="E25">
-        <v>0.9962489001701355</v>
+        <v>0.9972736613378863</v>
       </c>
       <c r="F25">
-        <v>1.007922456626812</v>
+        <v>1.008750252466984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051207802065179</v>
+        <v>1.052296076515968</v>
       </c>
       <c r="J25">
-        <v>1.001683213305742</v>
+        <v>1.002915431349551</v>
       </c>
       <c r="K25">
-        <v>1.039850950245993</v>
+        <v>1.041965926089672</v>
       </c>
       <c r="L25">
-        <v>1.008905727571802</v>
+        <v>1.009914448150356</v>
       </c>
       <c r="M25">
-        <v>1.020399019068845</v>
+        <v>1.021214233862314</v>
       </c>
       <c r="N25">
-        <v>1.004033084028311</v>
+        <v>1.007659518839017</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024716669019878</v>
+        <v>1.02536187110939</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039296591442814</v>
+        <v>1.040805434007912</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020893887186344</v>
       </c>
     </row>
   </sheetData>
